--- a/Results/edgar_ar5_ar6_code_comparison.xlsx
+++ b/Results/edgar_ar5_ar6_code_comparison.xlsx
@@ -1,1598 +1,1582 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lamw\Documents\SpiderOak Hive\Work\Projects\AR6-Emissions-trends-and-drivers\Results\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="comparison" sheetId="1" r:id="rId1"/>
+    <sheet name="comparison" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="519">
-  <si>
-    <t>code</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>IPCC_AR6_chapter</t>
-  </si>
-  <si>
-    <t>IPCC_AR6_chapter_title</t>
-  </si>
-  <si>
-    <t>GHG_2018</t>
-  </si>
-  <si>
-    <t>GHG_fraction_2018</t>
-  </si>
-  <si>
-    <t>IPCC_AR5_chapter</t>
-  </si>
-  <si>
-    <t>IPCC_AR5_sector</t>
-  </si>
-  <si>
-    <t>1A1a1</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="519">
+  <si>
+    <t xml:space="preserve">code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IPCC_AR6_chapter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IPCC_AR6_chapter_title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GHG_2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GHG_fraction_2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IPCC_AR5_chapter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IPCC_AR5_sector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1A1a1</t>
   </si>
   <si>
     <t xml:space="preserve">Public Electricity Generation </t>
   </si>
   <si>
-    <t>Energy systems</t>
-  </si>
-  <si>
-    <t>C7</t>
-  </si>
-  <si>
-    <t>Electricity &amp; heat (7.1)</t>
-  </si>
-  <si>
-    <t>1A1a2</t>
-  </si>
-  <si>
-    <t>Public Combined Heat and Power gen.</t>
-  </si>
-  <si>
-    <t>1A1a3</t>
-  </si>
-  <si>
-    <t>Public Heat Plants</t>
-  </si>
-  <si>
-    <t>1A1a4</t>
-  </si>
-  <si>
-    <t>Public Electricity Generation (own use)</t>
-  </si>
-  <si>
-    <t>1A1a5</t>
-  </si>
-  <si>
-    <t>Electricity Generation (autoproducers)</t>
-  </si>
-  <si>
-    <t>1A1a6</t>
-  </si>
-  <si>
-    <t>Combined Heat and Power gen. (autoprod.)</t>
-  </si>
-  <si>
-    <t>1A1a7</t>
-  </si>
-  <si>
-    <t>Heat Plants (autoproducers)</t>
-  </si>
-  <si>
-    <t>2F8b</t>
-  </si>
-  <si>
-    <t>Electrical Equipment Use (incl. site inst.)</t>
-  </si>
-  <si>
-    <t>Others (7.5)</t>
-  </si>
-  <si>
-    <t>7B1</t>
-  </si>
-  <si>
-    <t>Indirect N2O from NOx emitted in cat. 1A</t>
-  </si>
-  <si>
-    <t>Indirect N2O emissions from energy (7.6)</t>
-  </si>
-  <si>
-    <t>7C1</t>
-  </si>
-  <si>
-    <t>Indirect N2O from NH3 emitted in cat. 1A</t>
-  </si>
-  <si>
-    <t>1A1ax1</t>
-  </si>
-  <si>
-    <t>Public Electricity Generation (biomass)</t>
-  </si>
-  <si>
-    <t>1A1ax2</t>
-  </si>
-  <si>
-    <t>Public Combined Heat and Power gen. (biom.)</t>
-  </si>
-  <si>
-    <t>1A1ax3</t>
-  </si>
-  <si>
-    <t>Public Heat Plants (biomass)</t>
-  </si>
-  <si>
-    <t>1A1ax4</t>
-  </si>
-  <si>
-    <t>Public Electricity Gen. (own use) (biom.)</t>
-  </si>
-  <si>
-    <t>1A1ax5</t>
-  </si>
-  <si>
-    <t>Electricity Generation (autoproducers) (biom.)</t>
-  </si>
-  <si>
-    <t>1A1ax6</t>
-  </si>
-  <si>
-    <t>Combined Heat and Power gen. (autopr.) (biom.)</t>
-  </si>
-  <si>
-    <t>1A1ax7</t>
-  </si>
-  <si>
-    <t>Heat Plants (autoproducers) (biomass)</t>
-  </si>
-  <si>
-    <t>1A1b</t>
-  </si>
-  <si>
-    <t>Refineries</t>
-  </si>
-  <si>
-    <t>1A1bx</t>
-  </si>
-  <si>
-    <t>Refineries (biomass)</t>
-  </si>
-  <si>
-    <t>1A1c3</t>
-  </si>
-  <si>
-    <t>Gas works</t>
-  </si>
-  <si>
-    <t>1A1c5</t>
-  </si>
-  <si>
-    <t>Other transformation sector (BKB, etc.)</t>
-  </si>
-  <si>
-    <t>1A1cx3</t>
-  </si>
-  <si>
-    <t>Gas works (biom.)</t>
-  </si>
-  <si>
-    <t>1A1cx4</t>
-  </si>
-  <si>
-    <t>Fuel comb. charcoal production (biom.)</t>
-  </si>
-  <si>
-    <t>1A1cx5</t>
-  </si>
-  <si>
-    <t>Other transf. sector (BKB, etc.) (biom.)</t>
-  </si>
-  <si>
-    <t>1B1a1</t>
-  </si>
-  <si>
-    <t>Hard coal mining (gross)</t>
-  </si>
-  <si>
-    <t>1B1a1r</t>
-  </si>
-  <si>
-    <t>Methane recovery from coal mining</t>
-  </si>
-  <si>
-    <t>1B1a2</t>
-  </si>
-  <si>
-    <t>Abandoned mines</t>
-  </si>
-  <si>
-    <t>1B1a3</t>
-  </si>
-  <si>
-    <t>Brown coal mining</t>
-  </si>
-  <si>
-    <t>1B1b2</t>
-  </si>
-  <si>
-    <t>Fuel transformation in gas works</t>
-  </si>
-  <si>
-    <t>1B1b3x</t>
-  </si>
-  <si>
-    <t>Fuel transformation charcoal production</t>
-  </si>
-  <si>
-    <t>1B1b4</t>
-  </si>
-  <si>
-    <t>Fuel transformation of solid fuels (BKB Plants, coal liquefaction, patent fuel plants)</t>
-  </si>
-  <si>
-    <t>1B2a1</t>
-  </si>
-  <si>
-    <t>Oil production</t>
-  </si>
-  <si>
-    <t>1B2a1x</t>
-  </si>
-  <si>
-    <t>1B2a2</t>
-  </si>
-  <si>
-    <t>Oil transmission</t>
-  </si>
-  <si>
-    <t>1B2a3-l</t>
-  </si>
-  <si>
-    <t>Tanker loading</t>
-  </si>
-  <si>
-    <t>1B2a4-l</t>
-  </si>
-  <si>
-    <t>Tanker oil transport (crude and NGL)</t>
-  </si>
-  <si>
-    <t>1B2a4-t</t>
-  </si>
-  <si>
-    <t>Transport by oil trucks</t>
-  </si>
-  <si>
-    <t>1B2a5(e)</t>
-  </si>
-  <si>
-    <t>Oil refineries (evaporation)</t>
-  </si>
-  <si>
-    <t>1B2a6</t>
-  </si>
-  <si>
-    <t>Fuel transformation from liquid fuels (petrochemical plants)</t>
-  </si>
-  <si>
-    <t>1B2b1</t>
-  </si>
-  <si>
-    <t>Gas production</t>
-  </si>
-  <si>
-    <t>1B2b3</t>
-  </si>
-  <si>
-    <t>Gas transmission</t>
-  </si>
-  <si>
-    <t>1B2b4</t>
-  </si>
-  <si>
-    <t>Gas distribution</t>
-  </si>
-  <si>
-    <t>1B2b5</t>
-  </si>
-  <si>
-    <t>Fuel transformation of gaseous fuels (GTL, Blend, (re-)gasif./Liquef., NSF)</t>
-  </si>
-  <si>
-    <t>1B2c</t>
-  </si>
-  <si>
-    <t>Venting and flaring during oil and gas production</t>
-  </si>
-  <si>
-    <t>7A1</t>
-  </si>
-  <si>
-    <t>Coal fires (underground)</t>
-  </si>
-  <si>
-    <t>7A2</t>
-  </si>
-  <si>
-    <t>Oil fires (Kuwait)</t>
-  </si>
-  <si>
-    <t>1A4c1</t>
-  </si>
-  <si>
-    <t>Agriculture and forestry (fos.)</t>
-  </si>
-  <si>
-    <t>AFOLU</t>
-  </si>
-  <si>
-    <t>C11</t>
-  </si>
-  <si>
-    <t>Fuel combustion (11.1)</t>
-  </si>
-  <si>
-    <t>1A4c2</t>
-  </si>
-  <si>
-    <t>Off-road machinery: agric./for. (diesel)</t>
-  </si>
-  <si>
-    <t>1A4c3</t>
-  </si>
-  <si>
-    <t>Fishing (fos.)</t>
-  </si>
-  <si>
-    <t>1A4d</t>
-  </si>
-  <si>
-    <t>Non-specified other (fos.)</t>
-  </si>
-  <si>
-    <t>1A4c1x</t>
-  </si>
-  <si>
-    <t>Agriculture and forestry (biom.)</t>
-  </si>
-  <si>
-    <t>1A4c3x</t>
-  </si>
-  <si>
-    <t>Fishing (biom.)</t>
-  </si>
-  <si>
-    <t>1A4dx</t>
-  </si>
-  <si>
-    <t>Non-specified other (biom.)</t>
-  </si>
-  <si>
-    <t>1A5b1</t>
-  </si>
-  <si>
-    <t>Off-road machinery: mining (diesel)</t>
-  </si>
-  <si>
-    <t>C10</t>
-  </si>
-  <si>
-    <t>Other industries (10.6)</t>
-  </si>
-  <si>
-    <t>4C</t>
-  </si>
-  <si>
-    <t>Rice cultivation</t>
-  </si>
-  <si>
-    <t>Rice cultivation (11.3)</t>
-  </si>
-  <si>
-    <t>4D4b</t>
-  </si>
-  <si>
-    <t>CO2 from agricultural lime application</t>
-  </si>
-  <si>
-    <t>Direct soil emissions (11.4)</t>
-  </si>
-  <si>
-    <t>4E</t>
-  </si>
-  <si>
-    <t>Savannah fires</t>
-  </si>
-  <si>
-    <t>Forrest fires and decay (11.5)</t>
-  </si>
-  <si>
-    <t>4A1-d</t>
-  </si>
-  <si>
-    <t>Dairy cattle</t>
-  </si>
-  <si>
-    <t>4A1-n</t>
-  </si>
-  <si>
-    <t>Non-dairy cattle</t>
-  </si>
-  <si>
-    <t>4A2</t>
-  </si>
-  <si>
-    <t>Buffalo</t>
-  </si>
-  <si>
-    <t>4A3</t>
-  </si>
-  <si>
-    <t>Sheep</t>
-  </si>
-  <si>
-    <t>4A4</t>
-  </si>
-  <si>
-    <t>Goats</t>
-  </si>
-  <si>
-    <t>4A5</t>
-  </si>
-  <si>
-    <t>Camels and Lamas</t>
-  </si>
-  <si>
-    <t>4A6</t>
-  </si>
-  <si>
-    <t>Horses</t>
-  </si>
-  <si>
-    <t>4A7</t>
-  </si>
-  <si>
-    <t>Mules and asses</t>
-  </si>
-  <si>
-    <t>4A8</t>
-  </si>
-  <si>
-    <t>Swine</t>
-  </si>
-  <si>
-    <t>4B1-d</t>
-  </si>
-  <si>
-    <t>Manure Man.: Dairy Cattle (confined)</t>
-  </si>
-  <si>
-    <t>4B1-n</t>
-  </si>
-  <si>
-    <t>Manure Man.: Non-Dairy Cattle (confined)</t>
-  </si>
-  <si>
-    <t>4B2</t>
-  </si>
-  <si>
-    <t>Manure Man.: Buffalo (confined)</t>
-  </si>
-  <si>
-    <t>4B3</t>
-  </si>
-  <si>
-    <t>Manure Man.: Sheep (confined)</t>
-  </si>
-  <si>
-    <t>4B4</t>
-  </si>
-  <si>
-    <t>Manure Man.: Goats (confined)</t>
-  </si>
-  <si>
-    <t>4B5</t>
-  </si>
-  <si>
-    <t>Manure Man.: Camels and llamas  (confined)</t>
-  </si>
-  <si>
-    <t>4B6</t>
-  </si>
-  <si>
-    <t>Manure Man.: Horses (confined)</t>
-  </si>
-  <si>
-    <t>4B7</t>
-  </si>
-  <si>
-    <t>Manure Man.: Mules and asses (confined)</t>
-  </si>
-  <si>
-    <t>4B8</t>
-  </si>
-  <si>
-    <t>Manure Man.: Swine (confined)</t>
-  </si>
-  <si>
-    <t>4B9</t>
-  </si>
-  <si>
-    <t>Manure Man.: Poultry (confined)</t>
-  </si>
-  <si>
-    <t>4D11</t>
-  </si>
-  <si>
-    <t>Synthetic Fertilizers</t>
-  </si>
-  <si>
-    <t>4D12</t>
-  </si>
-  <si>
-    <t>Animal Manure Applied to Soils</t>
-  </si>
-  <si>
-    <t>4D13</t>
-  </si>
-  <si>
-    <t>Direct soil emissions</t>
-  </si>
-  <si>
-    <t>4D14</t>
-  </si>
-  <si>
-    <t>Crop Residue</t>
-  </si>
-  <si>
-    <t>4D15</t>
-  </si>
-  <si>
-    <t>Cultivation of Histosols</t>
-  </si>
-  <si>
-    <t>4D2</t>
-  </si>
-  <si>
-    <t>Pasture, Range and Paddock Manure</t>
-  </si>
-  <si>
-    <t>4D3a</t>
-  </si>
-  <si>
-    <t>Indirect N2O: Atm. Depos. - agricult. (4D)</t>
-  </si>
-  <si>
-    <t>4D3b</t>
-  </si>
-  <si>
-    <t>Indirect N2O: Leaching and Run-Off - agri.</t>
-  </si>
-  <si>
-    <t>4D4a</t>
-  </si>
-  <si>
-    <t>CO2 from urea application</t>
-  </si>
-  <si>
-    <t>4F1</t>
-  </si>
-  <si>
-    <t>Field burning of agric. res.: cereals</t>
-  </si>
-  <si>
-    <t>4F2</t>
-  </si>
-  <si>
-    <t>Field burning of agric. res.: pulses</t>
-  </si>
-  <si>
-    <t>4F3</t>
-  </si>
-  <si>
-    <t>Field burning of agric. res.: tuber and roots</t>
-  </si>
-  <si>
-    <t>4F4</t>
-  </si>
-  <si>
-    <t>Field burning of agric. res.: sugar cane</t>
-  </si>
-  <si>
-    <t>4F5</t>
-  </si>
-  <si>
-    <t>Field burning of agric. res.: other</t>
-  </si>
-  <si>
-    <t>1A4a</t>
-  </si>
-  <si>
-    <t>Commercial and public services (fos.)</t>
-  </si>
-  <si>
-    <t>Buildings</t>
-  </si>
-  <si>
-    <t>C9</t>
-  </si>
-  <si>
-    <t>Commercial (9.1)</t>
-  </si>
-  <si>
-    <t>1A4b</t>
-  </si>
-  <si>
-    <t>Residential (fos.)</t>
-  </si>
-  <si>
-    <t>Residential (9.2)</t>
-  </si>
-  <si>
-    <t>1A4ax</t>
-  </si>
-  <si>
-    <t>Commercial and public services (biom.)</t>
-  </si>
-  <si>
-    <t>1A4bx</t>
-  </si>
-  <si>
-    <t>Residential (biom.)</t>
-  </si>
-  <si>
-    <t>2F3</t>
-  </si>
-  <si>
-    <t>Fire Extinguishers</t>
-  </si>
-  <si>
-    <t>Others (9.3)</t>
-  </si>
-  <si>
-    <t>2F4</t>
-  </si>
-  <si>
-    <t>Aerosols</t>
-  </si>
-  <si>
-    <t>2F9a</t>
-  </si>
-  <si>
-    <t>Adiabatic prop.: shoes and others</t>
-  </si>
-  <si>
-    <t>2F9c</t>
-  </si>
-  <si>
-    <t>Soundproof windows</t>
-  </si>
-  <si>
-    <t>1A3a</t>
-  </si>
-  <si>
-    <t>Domestic air transport</t>
-  </si>
-  <si>
-    <t>Transport</t>
-  </si>
-  <si>
-    <t>C8</t>
-  </si>
-  <si>
-    <t>Aviation (8.1)</t>
-  </si>
-  <si>
-    <t>1A3b</t>
-  </si>
-  <si>
-    <t>Road transport (incl. evap.) (foss.)</t>
-  </si>
-  <si>
-    <t>Road transportation (8.2)</t>
-  </si>
-  <si>
-    <t>1A3c</t>
-  </si>
-  <si>
-    <t>Non-road transport (rail, etc.) (fos.)</t>
-  </si>
-  <si>
-    <t>Rail transportation (8.3)</t>
-  </si>
-  <si>
-    <t>1A3d</t>
-  </si>
-  <si>
-    <t>Inland shipping (fos.)</t>
-  </si>
-  <si>
-    <t>Navigation (8.4)</t>
-  </si>
-  <si>
-    <t>1A3e</t>
-  </si>
-  <si>
-    <t>Non-road transport (fos.)</t>
-  </si>
-  <si>
-    <t>Others incl. indirect N2O emissions from transport (8.5)</t>
-  </si>
-  <si>
-    <t>1A3bx</t>
-  </si>
-  <si>
-    <t>Road transport (incl. evap.) (biom.)</t>
-  </si>
-  <si>
-    <t>1A3cx</t>
-  </si>
-  <si>
-    <t>Non-road transport (rail, etc.)(biom.)</t>
-  </si>
-  <si>
-    <t>1A3dx</t>
-  </si>
-  <si>
-    <t>Inland shipping (biom.)</t>
-  </si>
-  <si>
-    <t>1A3ex</t>
-  </si>
-  <si>
-    <t>Non-road transport (biom.)</t>
-  </si>
-  <si>
-    <t>1C1</t>
-  </si>
-  <si>
-    <t>International air transport</t>
-  </si>
-  <si>
-    <t>International Aviation (8.6)</t>
-  </si>
-  <si>
-    <t>1C2</t>
-  </si>
-  <si>
-    <t>International marine transport (bunkers)</t>
-  </si>
-  <si>
-    <t>International Shipping (8.7)</t>
-  </si>
-  <si>
-    <t>2F9b</t>
-  </si>
-  <si>
-    <t>Adiabatic prop.: tyres</t>
-  </si>
-  <si>
-    <t>1C2x</t>
-  </si>
-  <si>
-    <t>International marine transport (biom.)</t>
-  </si>
-  <si>
-    <t>1A1c1</t>
-  </si>
-  <si>
-    <t>Fuel combustion coke ovens</t>
-  </si>
-  <si>
-    <t>Industry</t>
-  </si>
-  <si>
-    <t>Ferrous and non-ferrous metals (10.1)</t>
-  </si>
-  <si>
-    <t>1A1c2</t>
-  </si>
-  <si>
-    <t>Blast furnaces (pig iron prod.)</t>
-  </si>
-  <si>
-    <t>1A2a</t>
-  </si>
-  <si>
-    <t>Iron and steel</t>
-  </si>
-  <si>
-    <t>1A2b</t>
-  </si>
-  <si>
-    <t>Non-ferrous metals</t>
-  </si>
-  <si>
-    <t>1A2c</t>
-  </si>
-  <si>
-    <t>Chemicals</t>
-  </si>
-  <si>
-    <t>Chemicals (10.2)</t>
-  </si>
-  <si>
-    <t>1A2d</t>
-  </si>
-  <si>
-    <t>Pulp and paper</t>
-  </si>
-  <si>
-    <t>1A2e</t>
-  </si>
-  <si>
-    <t>Food and tobacco</t>
-  </si>
-  <si>
-    <t>1A2f</t>
-  </si>
-  <si>
-    <t>Other industries (stationary) (fos.)</t>
-  </si>
-  <si>
-    <t>1A2f1</t>
-  </si>
-  <si>
-    <t>Off-road machinery: construction (diesel)</t>
-  </si>
-  <si>
-    <t>1A2f2</t>
-  </si>
-  <si>
-    <t>1A2ax</t>
-  </si>
-  <si>
-    <t>Iron and steel (biomass)</t>
-  </si>
-  <si>
-    <t>1A2bx</t>
-  </si>
-  <si>
-    <t>Non-ferrous metals (biomass)</t>
-  </si>
-  <si>
-    <t>1A2cx</t>
-  </si>
-  <si>
-    <t>Chemicals (biomass)</t>
-  </si>
-  <si>
-    <t>1A2dx</t>
-  </si>
-  <si>
-    <t>Pulp and paper (biomass)</t>
-  </si>
-  <si>
-    <t>1A2ex</t>
-  </si>
-  <si>
-    <t>Food and tobacco (biomass)</t>
-  </si>
-  <si>
-    <t>1B1b1</t>
-  </si>
-  <si>
-    <t>Fuel transformation coke ovens</t>
-  </si>
-  <si>
-    <t>2A1</t>
-  </si>
-  <si>
-    <t>Cement production</t>
-  </si>
-  <si>
-    <t>Cement production (10.3)</t>
-  </si>
-  <si>
-    <t>2A2</t>
-  </si>
-  <si>
-    <t>Lime production</t>
-  </si>
-  <si>
-    <t>2A3</t>
-  </si>
-  <si>
-    <t>Limestone and Dolomite Use</t>
-  </si>
-  <si>
-    <t>2C1a</t>
-  </si>
-  <si>
-    <t>Crude steel production total</t>
-  </si>
-  <si>
-    <t>2C1b</t>
-  </si>
-  <si>
-    <t>Blast furnaces</t>
-  </si>
-  <si>
-    <t>2C2</t>
-  </si>
-  <si>
-    <t>Ferroy Alloy production</t>
-  </si>
-  <si>
-    <t>c10</t>
-  </si>
-  <si>
-    <t>2C4a</t>
-  </si>
-  <si>
-    <t>Magnesium foundries: SF6 use</t>
-  </si>
-  <si>
-    <t>2C4b</t>
-  </si>
-  <si>
-    <t>Aluminium foundries: SF6 use</t>
-  </si>
-  <si>
-    <t>2F2</t>
-  </si>
-  <si>
-    <t>Foam Blowing</t>
-  </si>
-  <si>
-    <t>2F5</t>
-  </si>
-  <si>
-    <t>F-gas as Solvent</t>
-  </si>
-  <si>
-    <t>2F7a</t>
-  </si>
-  <si>
-    <t>Semiconductor Manufacture</t>
-  </si>
-  <si>
-    <t>2F7b</t>
-  </si>
-  <si>
-    <t>Flat Panel Display (FPD) Manufacture</t>
-  </si>
-  <si>
-    <t>2F7c</t>
-  </si>
-  <si>
-    <t>Photo Voltaic (PV) Cell Manufacture</t>
-  </si>
-  <si>
-    <t>2F8a</t>
-  </si>
-  <si>
-    <t>Electrical Equipment Manufacture</t>
-  </si>
-  <si>
-    <t>2F9</t>
-  </si>
-  <si>
-    <t>F-gas/ODP consumption</t>
-  </si>
-  <si>
-    <t>2F9d</t>
-  </si>
-  <si>
-    <t>Accelerators/HEP</t>
-  </si>
-  <si>
-    <t>2F9e</t>
-  </si>
-  <si>
-    <t>Misc. (AWACS, other military and misc.)</t>
-  </si>
-  <si>
-    <t>2F9f</t>
-  </si>
-  <si>
-    <t>Unknown SF6 use</t>
-  </si>
-  <si>
-    <t>3A</t>
-  </si>
-  <si>
-    <t>Solvents in paint</t>
-  </si>
-  <si>
-    <t>3B</t>
-  </si>
-  <si>
-    <t>Degreasing and dry cleaning</t>
-  </si>
-  <si>
-    <t>3C</t>
-  </si>
-  <si>
-    <t>Chemical products</t>
-  </si>
-  <si>
-    <t>3D</t>
-  </si>
-  <si>
-    <t>Other product use</t>
-  </si>
-  <si>
-    <t>6C</t>
-  </si>
-  <si>
-    <t>Waste incineration - hazardous</t>
-  </si>
-  <si>
-    <t>Landfill &amp; waste incineration (10.4)</t>
-  </si>
-  <si>
-    <t>6D</t>
-  </si>
-  <si>
-    <t>Other waste</t>
-  </si>
-  <si>
-    <t>7B2</t>
-  </si>
-  <si>
-    <t>Indirect N2O from NOx emitted in cat. 2-3</t>
-  </si>
-  <si>
-    <t>Indirect N2O Emissions from Industry (10.7)</t>
-  </si>
-  <si>
-    <t>7C2</t>
-  </si>
-  <si>
-    <t>Indirect N2O from NH3 emitted in cat. 2-3</t>
-  </si>
-  <si>
-    <t>1A2fx</t>
-  </si>
-  <si>
-    <t>Other industries (stationary) (biom.)</t>
-  </si>
-  <si>
-    <t>2A4a</t>
-  </si>
-  <si>
-    <t>Soda ash production</t>
-  </si>
-  <si>
-    <t>2A4b</t>
-  </si>
-  <si>
-    <t>Soda ash use</t>
-  </si>
-  <si>
-    <t>2A7a</t>
-  </si>
-  <si>
-    <t>Glass production</t>
-  </si>
-  <si>
-    <t>2B1g</t>
-  </si>
-  <si>
-    <t>Ammonia production (gross CO2)</t>
-  </si>
-  <si>
-    <t>2B1s</t>
-  </si>
-  <si>
-    <t>CO2-ammonia stored in urea</t>
-  </si>
-  <si>
-    <t>2B2</t>
-  </si>
-  <si>
-    <t>Nitric acid production</t>
-  </si>
-  <si>
-    <t>2B3</t>
-  </si>
-  <si>
-    <t>Adipic acid production</t>
-  </si>
-  <si>
-    <t>2B4a</t>
-  </si>
-  <si>
-    <t>Silicon carbide production</t>
-  </si>
-  <si>
-    <t>2B4b</t>
-  </si>
-  <si>
-    <t>Calcium carbide production</t>
-  </si>
-  <si>
-    <t>2B5a</t>
-  </si>
-  <si>
-    <t>Carbon black production</t>
-  </si>
-  <si>
-    <t>2B5b</t>
-  </si>
-  <si>
-    <t>Ethylene production</t>
-  </si>
-  <si>
-    <t>2B5d</t>
-  </si>
-  <si>
-    <t>Styrene production</t>
-  </si>
-  <si>
-    <t>2B5e</t>
-  </si>
-  <si>
-    <t>Methanol production</t>
-  </si>
-  <si>
-    <t>2B5f</t>
-  </si>
-  <si>
-    <t>Caprolactam production</t>
-  </si>
-  <si>
-    <t>2B5g</t>
-  </si>
-  <si>
-    <t>Other bulk chemicals production</t>
-  </si>
-  <si>
-    <t>2B5g1</t>
-  </si>
-  <si>
-    <t>Urea production</t>
-  </si>
-  <si>
-    <t>2B5g2</t>
-  </si>
-  <si>
-    <t>Vinyl chloride production</t>
-  </si>
-  <si>
-    <t>2B5h1</t>
-  </si>
-  <si>
-    <t>Glyoxal production</t>
-  </si>
-  <si>
-    <t>2C1d</t>
-  </si>
-  <si>
-    <t>Sinter production</t>
-  </si>
-  <si>
-    <t>2C3a</t>
-  </si>
-  <si>
-    <t>Aluminium production (primary)</t>
-  </si>
-  <si>
-    <t>2C3b</t>
-  </si>
-  <si>
-    <t>Aluminium production (secondary)</t>
-  </si>
-  <si>
-    <t>2C5lp</t>
-  </si>
-  <si>
-    <t>Lead production (primary)</t>
-  </si>
-  <si>
-    <t>2C5mp</t>
-  </si>
-  <si>
-    <t>Magnesium production (primary)</t>
-  </si>
-  <si>
-    <t>2C5zp</t>
-  </si>
-  <si>
-    <t>Zinc production (primary)</t>
-  </si>
-  <si>
-    <t>2E1</t>
-  </si>
-  <si>
-    <t>Production of halocarbons</t>
-  </si>
-  <si>
-    <t>2F1a</t>
-  </si>
-  <si>
-    <t>Refrigeration and Air Conditioning</t>
-  </si>
-  <si>
-    <t>2G1</t>
-  </si>
-  <si>
-    <t>Non-energy use of lubricants/waxes (CO2)</t>
-  </si>
-  <si>
-    <t>2G2</t>
-  </si>
-  <si>
-    <t>Other Non-energy use of fuels (CO2 only)</t>
-  </si>
-  <si>
-    <t>3D1</t>
-  </si>
-  <si>
-    <t>Use of N2O as anaesthesia</t>
-  </si>
-  <si>
-    <t>3D3</t>
-  </si>
-  <si>
-    <t>Use of N2O in aerosol spray cans</t>
-  </si>
-  <si>
-    <t>6A1</t>
-  </si>
-  <si>
-    <t>Managed waste disposal on land</t>
-  </si>
-  <si>
-    <t>6B1</t>
-  </si>
-  <si>
-    <t>Industrial wastewater</t>
-  </si>
-  <si>
-    <t>6B2</t>
-  </si>
-  <si>
-    <t>Domestic and commercial wastewater</t>
-  </si>
-  <si>
-    <t>6Cax</t>
-  </si>
-  <si>
-    <t>Waste incineration - biogenic</t>
-  </si>
-  <si>
-    <t>6Cb1</t>
+    <t xml:space="preserve">Energy systems</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Electricity &amp; heat (7.1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1A1a2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Public Combined Heat and Power gen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1A1a3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Public Heat Plants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1A1a4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Public Electricity Generation (own use)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1A1a5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Electricity Generation (autoproducers)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1A1a6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combined Heat and Power gen. (autoprod.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1A1a7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heat Plants (autoproducers)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2F8b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Electrical Equipment Use (incl. site inst.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Others (7.5)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7B1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indirect N2O from NOx emitted in cat. 1A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indirect N2O emissions from energy (7.6)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7C1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indirect N2O from NH3 emitted in cat. 1A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1A1ax1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Public Electricity Generation (biomass)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1A1ax2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Public Combined Heat and Power gen. (biom.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1A1ax3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Public Heat Plants (biomass)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1A1ax4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Public Electricity Gen. (own use) (biom.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1A1ax5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Electricity Generation (autoproducers) (biom.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1A1ax6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combined Heat and Power gen. (autopr.) (biom.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1A1ax7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heat Plants (autoproducers) (biomass)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1A1b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Refineries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1A1bx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Refineries (biomass)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1A1c3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gas works</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1A1c5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other transformation sector (BKB, etc.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1A1cx3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gas works (biom.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1A1cx4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuel comb. charcoal production (biom.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1A1cx5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other transf. sector (BKB, etc.) (biom.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1B1a1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hard coal mining (gross)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1B1a1r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methane recovery from coal mining</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1B1a2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abandoned mines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1B1a3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brown coal mining</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1B1b2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuel transformation in gas works</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1B1b3x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuel transformation charcoal production</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1B1b4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuel transformation of solid fuels (BKB Plants, coal liquefaction, patent fuel plants)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1B2a1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oil production</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1B2a1x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1B2a2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oil transmission</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1B2a3-l</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tanker loading</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1B2a4-l</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tanker oil transport (crude and NGL)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1B2a4-t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transport by oil trucks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1B2a5(e)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oil refineries (evaporation)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1B2a6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuel transformation from liquid fuels (petrochemical plants)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1B2b1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gas production</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1B2b3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gas transmission</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1B2b4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gas distribution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1B2b5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuel transformation of gaseous fuels (GTL, Blend, (re-)gasif./Liquef., NSF)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1B2c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Venting and flaring during oil and gas production</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coal fires (underground)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7A2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oil fires (Kuwait)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1A4c1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agriculture and forestry (fos.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AFOLU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuel combustion (11.1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1A4c2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Off-road machinery: agric./for. (diesel)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1A4c3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fishing (fos.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1A4d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non-specified other (fos.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1A4c1x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agriculture and forestry (biom.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1A4c3x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fishing (biom.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1A4dx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non-specified other (biom.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1A5b1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Off-road machinery: mining (diesel)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other industries (10.6)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rice cultivation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rice cultivation (11.3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4D4b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CO2 from agricultural lime application</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Direct soil emissions (11.4)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Savannah fires</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forrest fires and decay (11.5)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4A1-d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dairy cattle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4A1-n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non-dairy cattle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4A2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buffalo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4A3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sheep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4A4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Goats</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4A5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Camels and Lamas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4A6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Horses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4A7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mules and asses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4A8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Swine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4B1-d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manure Man.: Dairy Cattle (confined)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4B1-n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manure Man.: Non-Dairy Cattle (confined)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4B2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manure Man.: Buffalo (confined)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4B3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manure Man.: Sheep (confined)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4B4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manure Man.: Goats (confined)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4B5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manure Man.: Camels and llamas  (confined)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4B6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manure Man.: Horses (confined)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4B7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manure Man.: Mules and asses (confined)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4B8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manure Man.: Swine (confined)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4B9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manure Man.: Poultry (confined)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4D11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Synthetic Fertilizers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4D12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Animal Manure Applied to Soils</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4D13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Direct soil emissions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4D14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crop Residue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4D15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cultivation of Histosols</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4D2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pasture, Range and Paddock Manure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4D3a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indirect N2O: Atm. Depos. - agricult. (4D)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4D3b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indirect N2O: Leaching and Run-Off - agri.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4D4a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CO2 from urea application</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4F1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Field burning of agric. res.: cereals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4F2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Field burning of agric. res.: pulses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4F3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Field burning of agric. res.: tuber and roots</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4F4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Field burning of agric. res.: sugar cane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4F5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Field burning of agric. res.: other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1A4a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Commercial and public services (fos.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buildings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Commercial (9.1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1A4b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Residential (fos.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Residential (9.2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1A4ax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Commercial and public services (biom.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1A4bx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Residential (biom.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2F3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fire Extinguishers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Others (9.3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2F4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aerosols</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2F9a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adiabatic prop.: shoes and others</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2F9c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soundproof windows</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1A3a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Domestic air transport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aviation (8.1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1A3b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Road transport (incl. evap.) (foss.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Road transportation (8.2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1A3c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non-road transport (rail, etc.) (fos.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rail transportation (8.3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1A3d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inland shipping (fos.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Navigation (8.4)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1A3e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non-road transport (fos.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Others incl. indirect N2O emissions from transport (8.5)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1A3bx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Road transport (incl. evap.) (biom.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1A3cx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non-road transport (rail, etc.)(biom.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1A3dx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inland shipping (biom.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1A3ex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non-road transport (biom.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1C1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">International air transport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">International Aviation (8.6)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1C2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">International marine transport (bunkers)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">International Shipping (8.7)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2F9b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adiabatic prop.: tyres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1C2x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">International marine transport (biom.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1A1c1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuel combustion coke ovens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Industry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ferrous and non-ferrous metals (10.1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1A1c2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blast furnaces (pig iron prod.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1A2a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iron and steel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1A2b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non-ferrous metals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1A2c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chemicals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chemicals (10.2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1A2d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pulp and paper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1A2e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Food and tobacco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1A2f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other industries (stationary) (fos.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1A2f1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Off-road machinery: construction (diesel)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1A2f2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1A2ax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iron and steel (biomass)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1A2bx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non-ferrous metals (biomass)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1A2cx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chemicals (biomass)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1A2dx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pulp and paper (biomass)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1A2ex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Food and tobacco (biomass)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1B1b1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuel transformation coke ovens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cement production</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cement production (10.3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2A2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lime production</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2A3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Limestone and Dolomite Use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2C1a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crude steel production total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2C1b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blast furnaces</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2C2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ferroy Alloy production</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2C4a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Magnesium foundries: SF6 use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2C4b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aluminium foundries: SF6 use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2F2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Foam Blowing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2F5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F-gas as Solvent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2F7a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Semiconductor Manufacture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2F7b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flat Panel Display (FPD) Manufacture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2F7c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Photo Voltaic (PV) Cell Manufacture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2F8a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Electrical Equipment Manufacture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2F9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F-gas/ODP consumption</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2F9d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accelerators/HEP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2F9e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Misc. (AWACS, other military and misc.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2F9f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unknown SF6 use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solvents in paint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Degreasing and dry cleaning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chemical products</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other product use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Waste incineration - hazardous</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Landfill &amp; waste incineration (10.4)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other waste</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7B2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indirect N2O from NOx emitted in cat. 2-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indirect N2O Emissions from Industry (10.7)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7C2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indirect N2O from NH3 emitted in cat. 2-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1A2fx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other industries (stationary) (biom.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2A4a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soda ash production</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2A4b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soda ash use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2A7a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glass production</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2B1g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ammonia production (gross CO2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2B1s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CO2-ammonia stored in urea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2B2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nitric acid production</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2B3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adipic acid production</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2B4a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Silicon carbide production</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2B4b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calcium carbide production</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2B5a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carbon black production</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2B5b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ethylene production</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2B5d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Styrene production</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2B5e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methanol production</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2B5f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caprolactam production</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2B5g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other bulk chemicals production</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2B5g1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Urea production</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2B5g2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vinyl chloride production</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2B5h1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glyoxal production</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2C1d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sinter production</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2C3a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aluminium production (primary)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2C3b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aluminium production (secondary)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2C5lp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lead production (primary)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2C5mp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Magnesium production (primary)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2C5zp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zinc production (primary)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2E1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Production of halocarbons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2F1a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Refrigeration and Air Conditioning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2G1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non-energy use of lubricants/waxes (CO2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2G2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other Non-energy use of fuels (CO2 only)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3D1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use of N2O as anaesthesia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3D3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use of N2O in aerosol spray cans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Managed waste disposal on land</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6B1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Industrial wastewater</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6B2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Domestic and commercial wastewater</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6Cax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Waste incineration - biogenic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6Cb1</t>
   </si>
   <si>
     <t xml:space="preserve">Waste incineration - uncontrolled MSW burning </t>
   </si>
   <si>
-    <t>6Cb2</t>
-  </si>
-  <si>
-    <t>Waste incineration - other non-biogenic</t>
-  </si>
-  <si>
-    <t>1A1a</t>
-  </si>
-  <si>
-    <t>Power Generation</t>
-  </si>
-  <si>
-    <t>1A1ax</t>
-  </si>
-  <si>
-    <t>Public Electricity and Heat Production (biomass)</t>
-  </si>
-  <si>
-    <t>1A1bc</t>
-  </si>
-  <si>
-    <t>Other Energy Industries</t>
-  </si>
-  <si>
-    <t>Petroleum refining (7.2)</t>
-  </si>
-  <si>
-    <t>1A1r</t>
-  </si>
-  <si>
-    <t>Manufacture of solid fuels (7.3)</t>
-  </si>
-  <si>
-    <t>1A1cx</t>
-  </si>
-  <si>
-    <t>Manufacture of Solid Fuels and Other Energy Industries (biomass)</t>
-  </si>
-  <si>
-    <t>1A2f3</t>
-  </si>
-  <si>
-    <t>Machinery</t>
-  </si>
-  <si>
-    <t>1A2f4</t>
-  </si>
-  <si>
-    <t>Mining and quarrying</t>
-  </si>
-  <si>
-    <t>1A2f5</t>
-  </si>
-  <si>
-    <t>Wood and wood products</t>
-  </si>
-  <si>
-    <t>1A2f6</t>
-  </si>
-  <si>
-    <t>Construction</t>
-  </si>
-  <si>
-    <t>1A2f7</t>
-  </si>
-  <si>
-    <t>Textile and leather</t>
-  </si>
-  <si>
-    <t>1A2f8</t>
-  </si>
-  <si>
-    <t>Non-specified industry</t>
-  </si>
-  <si>
-    <t>1A3e1</t>
-  </si>
-  <si>
-    <t>Pipeline transport</t>
-  </si>
-  <si>
-    <t>1A3er</t>
-  </si>
-  <si>
-    <t>Non-specified transport</t>
-  </si>
-  <si>
-    <t>1B1r</t>
-  </si>
-  <si>
-    <t>Fugitive emissions from solids fuels except coke ovens</t>
-  </si>
-  <si>
-    <t>Fuel production and tranmission (7.4)</t>
-  </si>
-  <si>
-    <t>1B2</t>
-  </si>
-  <si>
-    <t>Flaring and fugitive emissions from oil and natural Gas</t>
-  </si>
-  <si>
-    <t>2A7</t>
-  </si>
-  <si>
-    <t>Production of other minerals</t>
-  </si>
-  <si>
-    <t>2B</t>
-  </si>
-  <si>
-    <t>Production of chemicals</t>
-  </si>
-  <si>
-    <t>2C</t>
-  </si>
-  <si>
-    <t>Metal Production</t>
-  </si>
-  <si>
-    <t>2C1</t>
-  </si>
-  <si>
-    <t>Iron and Steel Production</t>
-  </si>
-  <si>
-    <t>2C3</t>
-  </si>
-  <si>
-    <t>Aluminum production (primary)</t>
-  </si>
-  <si>
-    <t>2C4</t>
-  </si>
-  <si>
-    <t>SF6 Used in Aluminium and Magnesium Foundries</t>
-  </si>
-  <si>
-    <t>2Cr</t>
-  </si>
-  <si>
-    <t>Non-ferrous metals production</t>
-  </si>
-  <si>
-    <t>2E</t>
-  </si>
-  <si>
-    <t>Production of Halocarbons and SF6</t>
-  </si>
-  <si>
-    <t>2F1a1</t>
-  </si>
-  <si>
-    <t>Refrigeration and Air Conditioning Equipment (HFC) (Transport)</t>
-  </si>
-  <si>
-    <t>2F1a2</t>
-  </si>
-  <si>
-    <t>Refrigeration and Air Conditioning Equipment (HFC) (Building)</t>
-  </si>
-  <si>
-    <t>2F1b</t>
-  </si>
-  <si>
-    <t>Refrigeration and Air Conditioning Equipment (PFC)</t>
-  </si>
-  <si>
-    <t>2G</t>
-  </si>
-  <si>
-    <t>Non-energy use of lubricants/waxes</t>
-  </si>
-  <si>
-    <t>4A</t>
-  </si>
-  <si>
-    <t>Enteric Fermentation</t>
-  </si>
-  <si>
-    <t>Livestock (11.2)</t>
-  </si>
-  <si>
-    <t>4B</t>
-  </si>
-  <si>
-    <t>Manure management</t>
-  </si>
-  <si>
-    <t>4D3</t>
-  </si>
-  <si>
-    <t>Indirect Emissions</t>
-  </si>
-  <si>
-    <t>Indirect N2O emissions from AFOLU (11.7)</t>
-  </si>
-  <si>
-    <t>4D4</t>
-  </si>
-  <si>
-    <t>Other direct soil emissions</t>
-  </si>
-  <si>
-    <t>4Dr</t>
-  </si>
-  <si>
-    <t>Agricultural soils (direct)</t>
-  </si>
-  <si>
-    <t>4F</t>
-  </si>
-  <si>
-    <t>Agricultural waste burning</t>
-  </si>
-  <si>
-    <t>Peat fires and decay (11.6)</t>
-  </si>
-  <si>
-    <t>5A</t>
-  </si>
-  <si>
-    <t>Forest fires</t>
-  </si>
-  <si>
-    <t>5C</t>
-  </si>
-  <si>
-    <t>Grassland fires</t>
-  </si>
-  <si>
-    <t>5D</t>
-  </si>
-  <si>
-    <t>Peat fires and decay of drained peatland</t>
-  </si>
-  <si>
-    <t>5F2</t>
-  </si>
-  <si>
-    <t>Forest Fires-Post burn decay</t>
-  </si>
-  <si>
-    <t>6A</t>
-  </si>
-  <si>
-    <t>Solid waste disposal on land</t>
-  </si>
-  <si>
-    <t>6B</t>
-  </si>
-  <si>
-    <t>Wastewater handling</t>
-  </si>
-  <si>
-    <t>Wastewater treatment (10.5)</t>
-  </si>
-  <si>
-    <t>7A</t>
-  </si>
-  <si>
-    <t>Fossil fuel fires</t>
-  </si>
-  <si>
-    <t>7B3</t>
-  </si>
-  <si>
-    <t>Indirect N2O from NOx emitted in cat. 1A3</t>
-  </si>
-  <si>
-    <t>7B4</t>
-  </si>
-  <si>
-    <t>Indirect N2O from NOx emitted in cat. 1A4</t>
-  </si>
-  <si>
-    <t>Indirect N2O Emissions from Buildings (9.4)</t>
-  </si>
-  <si>
-    <t>7B5</t>
-  </si>
-  <si>
-    <t>Indirect N2O from NOx emitted in cat. 5</t>
-  </si>
-  <si>
-    <t>7C3</t>
-  </si>
-  <si>
-    <t>Indirect N2O from NH3 emitted in cat. 1A3</t>
-  </si>
-  <si>
-    <t>7C4</t>
-  </si>
-  <si>
-    <t>Indirect N2O from NH3 emitted in cat. 1A4</t>
-  </si>
-  <si>
-    <t>7C5</t>
-  </si>
-  <si>
-    <t>Indirect N2O from NH3 emitted in cat. 5</t>
+    <t xml:space="preserve">6Cb2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Waste incineration - other non-biogenic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1A1a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Power Generation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1A1ax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Public Electricity and Heat Production (biomass)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1A1bc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other Energy Industries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Petroleum refining (7.2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1A1r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manufacture of solid fuels (7.3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1A1cx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manufacture of Solid Fuels and Other Energy Industries (biomass)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1A2f3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Machinery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1A2f4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mining and quarrying</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1A2f5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wood and wood products</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1A2f6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Construction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1A2f7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Textile and leather</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1A2f8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non-specified industry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1A3e1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pipeline transport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1A3er</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non-specified transport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1B1r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fugitive emissions from solids fuels except coke ovens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuel production and tranmission (7.4)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1B2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flaring and fugitive emissions from oil and natural Gas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2A7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Production of other minerals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Production of chemicals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metal Production</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2C1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iron and Steel Production</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2C3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aluminum production (primary)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2C4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SF6 Used in Aluminium and Magnesium Foundries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2Cr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non-ferrous metals production</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Production of Halocarbons and SF6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2F1a1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Refrigeration and Air Conditioning Equipment (HFC) (Transport)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2F1a2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Refrigeration and Air Conditioning Equipment (HFC) (Building)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2F1b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Refrigeration and Air Conditioning Equipment (PFC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non-energy use of lubricants/waxes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enteric Fermentation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Livestock (11.2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manure management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4D3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indirect Emissions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indirect N2O emissions from AFOLU (11.7)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4D4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other direct soil emissions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4Dr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agricultural soils (direct)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agricultural waste burning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peat fires and decay (11.6)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forest fires</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grassland fires</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peat fires and decay of drained peatland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5F2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forest Fires-Post burn decay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solid waste disposal on land</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wastewater handling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wastewater treatment (10.5)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fossil fuel fires</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7B3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indirect N2O from NOx emitted in cat. 1A3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7B4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indirect N2O from NOx emitted in cat. 1A4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indirect N2O Emissions from Buildings (9.4)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7B5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indirect N2O from NOx emitted in cat. 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7C3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indirect N2O from NH3 emitted in cat. 1A3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7C4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indirect N2O from NH3 emitted in cat. 1A4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7C5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indirect N2O from NH3 emitted in cat. 5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="0.0%"/>
-  </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1618,28 +1602,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Prozent" xfId="1" builtinId="5"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1921,23 +1893,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H238"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F191" sqref="F2:F191"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="47.42578125" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1963,24 +1926,24 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>6</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="E2">
-        <v>10588867023.517401</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0.20152345078053999</v>
+      <c r="E2" t="n">
+        <v>10588867023.5174</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.20152345078054</v>
       </c>
       <c r="G2" t="s">
         <v>11</v>
@@ -1989,24 +1952,24 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>6</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
       </c>
-      <c r="E3">
-        <v>1239450472.4263301</v>
-      </c>
-      <c r="F3" s="1">
-        <v>2.3588768819192599E-2</v>
+      <c r="E3" t="n">
+        <v>1239450472.42633</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.0235887688191926</v>
       </c>
       <c r="G3" t="s">
         <v>11</v>
@@ -2015,24 +1978,24 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" t="s">
         <v>15</v>
       </c>
       <c r="B4" t="s">
         <v>16</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>6</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
       </c>
-      <c r="E4">
-        <v>550877520.55725205</v>
-      </c>
-      <c r="F4" s="1">
-        <v>1.04840998242367E-2</v>
+      <c r="E4" t="n">
+        <v>550877520.557252</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.0104840998242367</v>
       </c>
       <c r="G4" t="s">
         <v>11</v>
@@ -2041,24 +2004,24 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="A5" t="s">
         <v>17</v>
       </c>
       <c r="B5" t="s">
         <v>18</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
         <v>6</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
       </c>
-      <c r="E5">
-        <v>43254784.537147902</v>
-      </c>
-      <c r="F5" s="1">
-        <v>8.2320926529108498E-4</v>
+      <c r="E5" t="n">
+        <v>43254784.5371479</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.000823209265291085</v>
       </c>
       <c r="G5" t="s">
         <v>11</v>
@@ -2067,24 +2030,24 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="A6" t="s">
         <v>19</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>6</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
       </c>
-      <c r="E6">
-        <v>854914701.89214301</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1.62704244434917E-2</v>
+      <c r="E6" t="n">
+        <v>854914701.892143</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.0162704244434917</v>
       </c>
       <c r="G6" t="s">
         <v>11</v>
@@ -2093,24 +2056,24 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="A7" t="s">
         <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>22</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="n">
         <v>6</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
       </c>
-      <c r="E7">
-        <v>380966832.89109802</v>
-      </c>
-      <c r="F7" s="1">
-        <v>7.2504216576368503E-3</v>
+      <c r="E7" t="n">
+        <v>380966832.891098</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.00725042165763685</v>
       </c>
       <c r="G7" t="s">
         <v>11</v>
@@ -2119,24 +2082,24 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="A8" t="s">
         <v>23</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="n">
         <v>6</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
       </c>
-      <c r="E8">
-        <v>281891289.00027198</v>
-      </c>
-      <c r="F8" s="1">
-        <v>5.3648520826771696E-3</v>
+      <c r="E8" t="n">
+        <v>281891289.000272</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.00536485208267717</v>
       </c>
       <c r="G8" t="s">
         <v>11</v>
@@ -2145,24 +2108,24 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="A9" t="s">
         <v>25</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="n">
         <v>6</v>
       </c>
       <c r="D9" t="s">
         <v>10</v>
       </c>
-      <c r="E9">
-        <v>148138064.49766999</v>
-      </c>
-      <c r="F9" s="1">
-        <v>2.81930955249677E-3</v>
+      <c r="E9" t="n">
+        <v>148138064.49767</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.00281930955249677</v>
       </c>
       <c r="G9" t="s">
         <v>11</v>
@@ -2171,24 +2134,24 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="A10" t="s">
         <v>28</v>
       </c>
       <c r="B10" t="s">
         <v>29</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="n">
         <v>6</v>
       </c>
       <c r="D10" t="s">
         <v>10</v>
       </c>
-      <c r="E10">
-        <v>162279281.35098201</v>
-      </c>
-      <c r="F10" s="1">
-        <v>3.0884400281355798E-3</v>
+      <c r="E10" t="n">
+        <v>162279281.350982</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.00308844002813558</v>
       </c>
       <c r="G10" t="s">
         <v>11</v>
@@ -2197,24 +2160,24 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="A11" t="s">
         <v>31</v>
       </c>
       <c r="B11" t="s">
         <v>32</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="n">
         <v>6</v>
       </c>
       <c r="D11" t="s">
         <v>10</v>
       </c>
-      <c r="E11">
-        <v>22572199.942433499</v>
-      </c>
-      <c r="F11" s="1">
-        <v>4.2958586730806398E-4</v>
+      <c r="E11" t="n">
+        <v>22572199.9424335</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.000429585867308064</v>
       </c>
       <c r="G11" t="s">
         <v>11</v>
@@ -2223,744 +2186,816 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12">
       <c r="A12" t="s">
         <v>33</v>
       </c>
       <c r="B12" t="s">
         <v>34</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="n">
         <v>6</v>
       </c>
       <c r="D12" t="s">
         <v>10</v>
       </c>
-      <c r="E12">
-        <v>2082715.6604919501</v>
-      </c>
-      <c r="F12" s="1">
-        <v>3.9637483969232698E-5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E12" t="n">
+        <v>2082715.66049195</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.0000396374839692327</v>
+      </c>
+      <c r="G12"/>
+      <c r="H12"/>
+    </row>
+    <row r="13">
       <c r="A13" t="s">
         <v>35</v>
       </c>
       <c r="B13" t="s">
         <v>36</v>
       </c>
-      <c r="C13">
+      <c r="C13" t="n">
         <v>6</v>
       </c>
       <c r="D13" t="s">
         <v>10</v>
       </c>
-      <c r="E13">
+      <c r="E13" t="n">
         <v>1471592.64385564</v>
       </c>
-      <c r="F13" s="1">
-        <v>2.80068138616151E-5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F13" t="n">
+        <v>0.0000280068138616151</v>
+      </c>
+      <c r="G13"/>
+      <c r="H13"/>
+    </row>
+    <row r="14">
       <c r="A14" t="s">
         <v>37</v>
       </c>
       <c r="B14" t="s">
         <v>38</v>
       </c>
-      <c r="C14">
+      <c r="C14" t="n">
         <v>6</v>
       </c>
       <c r="D14" t="s">
         <v>10</v>
       </c>
-      <c r="E14">
-        <v>451034.02579783299</v>
-      </c>
-      <c r="F14" s="1">
-        <v>8.5839148887550095E-6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E14" t="n">
+        <v>451034.025797833</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.00000858391488875501</v>
+      </c>
+      <c r="G14"/>
+      <c r="H14"/>
+    </row>
+    <row r="15">
       <c r="A15" t="s">
         <v>39</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
-      <c r="C15">
+      <c r="C15" t="n">
         <v>6</v>
       </c>
       <c r="D15" t="s">
         <v>10</v>
       </c>
-      <c r="E15">
-        <v>3626.0549999999998</v>
-      </c>
-      <c r="F15" s="1">
-        <v>6.9009754744969198E-8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E15" t="n">
+        <v>3626.055</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.0000000690097547449692</v>
+      </c>
+      <c r="G15"/>
+      <c r="H15"/>
+    </row>
+    <row r="16">
       <c r="A16" t="s">
         <v>41</v>
       </c>
       <c r="B16" t="s">
         <v>42</v>
       </c>
-      <c r="C16">
+      <c r="C16" t="n">
         <v>6</v>
       </c>
       <c r="D16" t="s">
         <v>10</v>
       </c>
-      <c r="E16">
+      <c r="E16" t="n">
         <v>5425230.10091569</v>
       </c>
-      <c r="F16" s="1">
-        <v>1.0325099831613601E-4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F16" t="n">
+        <v>0.000103250998316136</v>
+      </c>
+      <c r="G16"/>
+      <c r="H16"/>
+    </row>
+    <row r="17">
       <c r="A17" t="s">
         <v>43</v>
       </c>
       <c r="B17" t="s">
         <v>44</v>
       </c>
-      <c r="C17">
+      <c r="C17" t="n">
         <v>6</v>
       </c>
       <c r="D17" t="s">
         <v>10</v>
       </c>
-      <c r="E17">
-        <v>2172452.6417180002</v>
-      </c>
-      <c r="F17" s="1">
-        <v>4.13453254294322E-5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E17" t="n">
+        <v>2172452.641718</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.0000413453254294322</v>
+      </c>
+      <c r="G17"/>
+      <c r="H17"/>
+    </row>
+    <row r="18">
       <c r="A18" t="s">
         <v>45</v>
       </c>
       <c r="B18" t="s">
         <v>46</v>
       </c>
-      <c r="C18">
+      <c r="C18" t="n">
         <v>6</v>
       </c>
       <c r="D18" t="s">
         <v>10</v>
       </c>
-      <c r="E18">
+      <c r="E18" t="n">
         <v>133730.3813064</v>
       </c>
-      <c r="F18" s="1">
-        <v>2.5451077868112501E-6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F18" t="n">
+        <v>0.00000254510778681125</v>
+      </c>
+      <c r="G18"/>
+      <c r="H18"/>
+    </row>
+    <row r="19">
       <c r="A19" t="s">
         <v>47</v>
       </c>
       <c r="B19" t="s">
         <v>48</v>
       </c>
-      <c r="C19">
+      <c r="C19" t="n">
         <v>6</v>
       </c>
       <c r="D19" t="s">
         <v>10</v>
       </c>
-      <c r="E19">
-        <v>638988871.96328497</v>
-      </c>
-      <c r="F19" s="1">
-        <v>1.2161002891282901E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E19" t="n">
+        <v>638988871.963285</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.0121610028912829</v>
+      </c>
+      <c r="G19"/>
+      <c r="H19"/>
+    </row>
+    <row r="20">
       <c r="A20" t="s">
         <v>49</v>
       </c>
       <c r="B20" t="s">
         <v>50</v>
       </c>
-      <c r="C20">
+      <c r="C20" t="n">
         <v>6</v>
       </c>
       <c r="D20" t="s">
         <v>10</v>
       </c>
-      <c r="E20">
-        <v>517.43550000000005</v>
-      </c>
-      <c r="F20" s="1">
-        <v>9.8476434999856604E-9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E20" t="n">
+        <v>517.4355</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.00000000984764349998566</v>
+      </c>
+      <c r="G20"/>
+      <c r="H20"/>
+    </row>
+    <row r="21">
       <c r="A21" t="s">
         <v>51</v>
       </c>
       <c r="B21" t="s">
         <v>52</v>
       </c>
-      <c r="C21">
+      <c r="C21" t="n">
         <v>6</v>
       </c>
       <c r="D21" t="s">
         <v>10</v>
       </c>
-      <c r="E21">
-        <v>8186589.4016615599</v>
-      </c>
-      <c r="F21" s="1">
-        <v>1.55804180247246E-4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E21" t="n">
+        <v>8186589.40166156</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.000155804180247246</v>
+      </c>
+      <c r="G21"/>
+      <c r="H21"/>
+    </row>
+    <row r="22">
       <c r="A22" t="s">
         <v>53</v>
       </c>
       <c r="B22" t="s">
         <v>54</v>
       </c>
-      <c r="C22">
+      <c r="C22" t="n">
         <v>6</v>
       </c>
       <c r="D22" t="s">
         <v>10</v>
       </c>
-      <c r="E22">
-        <v>822527464.64484704</v>
-      </c>
-      <c r="F22" s="1">
-        <v>1.5654042370052901E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E22" t="n">
+        <v>822527464.644847</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.0156540423700529</v>
+      </c>
+      <c r="G22"/>
+      <c r="H22"/>
+    </row>
+    <row r="23">
       <c r="A23" t="s">
         <v>55</v>
       </c>
       <c r="B23" t="s">
         <v>56</v>
       </c>
-      <c r="C23">
+      <c r="C23" t="n">
         <v>6</v>
       </c>
       <c r="D23" t="s">
         <v>10</v>
       </c>
-      <c r="E23">
-        <v>65.123999999999995</v>
-      </c>
-      <c r="F23" s="1">
-        <v>1.23941618867099E-9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E23" t="n">
+        <v>65.124</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.00000000123941618867099</v>
+      </c>
+      <c r="G23"/>
+      <c r="H23"/>
+    </row>
+    <row r="24">
       <c r="A24" t="s">
         <v>57</v>
       </c>
       <c r="B24" t="s">
         <v>58</v>
       </c>
-      <c r="C24">
+      <c r="C24" t="n">
         <v>6</v>
       </c>
       <c r="D24" t="s">
         <v>10</v>
       </c>
-      <c r="E24">
-        <v>30.718524813337901</v>
-      </c>
-      <c r="F24" s="1">
-        <v>5.8462374770810095E-10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E24" t="n">
+        <v>30.7185248133379</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.000000000584623747708101</v>
+      </c>
+      <c r="G24"/>
+      <c r="H24"/>
+    </row>
+    <row r="25">
       <c r="A25" t="s">
         <v>59</v>
       </c>
       <c r="B25" t="s">
         <v>60</v>
       </c>
-      <c r="C25">
+      <c r="C25" t="n">
         <v>6</v>
       </c>
       <c r="D25" t="s">
         <v>10</v>
       </c>
-      <c r="E25">
+      <c r="E25" t="n">
         <v>1265892.29</v>
       </c>
-      <c r="F25" s="1">
-        <v>2.4091999836309002E-5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F25" t="n">
+        <v>0.000024091999836309</v>
+      </c>
+      <c r="G25"/>
+      <c r="H25"/>
+    </row>
+    <row r="26">
       <c r="A26" t="s">
         <v>61</v>
       </c>
       <c r="B26" t="s">
         <v>62</v>
       </c>
-      <c r="C26">
+      <c r="C26" t="n">
         <v>6</v>
       </c>
       <c r="D26" t="s">
         <v>10</v>
       </c>
-      <c r="E26">
-        <v>1125050672.5139501</v>
-      </c>
-      <c r="F26" s="1">
-        <v>2.1411553599118199E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E26" t="n">
+        <v>1125050672.51395</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.0214115535991182</v>
+      </c>
+      <c r="G26"/>
+      <c r="H26"/>
+    </row>
+    <row r="27">
       <c r="A27" t="s">
         <v>63</v>
       </c>
       <c r="B27" t="s">
         <v>64</v>
       </c>
-      <c r="C27">
+      <c r="C27" t="n">
         <v>6</v>
       </c>
       <c r="D27" t="s">
         <v>10</v>
       </c>
-      <c r="E27">
-        <v>-89051917.297249094</v>
-      </c>
-      <c r="F27" s="1">
-        <v>-1.69480357365027E-3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E27" t="n">
+        <v>-89051917.2972491</v>
+      </c>
+      <c r="F27" t="n">
+        <v>-0.00169480357365027</v>
+      </c>
+      <c r="G27"/>
+      <c r="H27"/>
+    </row>
+    <row r="28">
       <c r="A28" t="s">
         <v>65</v>
       </c>
       <c r="B28" t="s">
         <v>66</v>
       </c>
-      <c r="C28">
+      <c r="C28" t="n">
         <v>6</v>
       </c>
       <c r="D28" t="s">
         <v>10</v>
       </c>
-      <c r="E28">
+      <c r="E28" t="n">
         <v>68825400</v>
       </c>
-      <c r="F28" s="1">
-        <v>1.30985988194454E-3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F28" t="n">
+        <v>0.00130985988194454</v>
+      </c>
+      <c r="G28"/>
+      <c r="H28"/>
+    </row>
+    <row r="29">
       <c r="A29" t="s">
         <v>67</v>
       </c>
       <c r="B29" t="s">
         <v>68</v>
       </c>
-      <c r="C29">
+      <c r="C29" t="n">
         <v>6</v>
       </c>
       <c r="D29" t="s">
         <v>10</v>
       </c>
-      <c r="E29">
-        <v>22817246.538940001</v>
-      </c>
-      <c r="F29" s="1">
-        <v>4.34249504656644E-4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E29" t="n">
+        <v>22817246.53894</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.000434249504656644</v>
+      </c>
+      <c r="G29"/>
+      <c r="H29"/>
+    </row>
+    <row r="30">
       <c r="A30" t="s">
         <v>69</v>
       </c>
       <c r="B30" t="s">
         <v>70</v>
       </c>
-      <c r="C30">
+      <c r="C30" t="n">
         <v>6</v>
       </c>
       <c r="D30" t="s">
         <v>10</v>
       </c>
-      <c r="E30">
-        <v>52953733.558799997</v>
-      </c>
-      <c r="F30" s="1">
-        <v>1.00779612160412E-3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E30" t="n">
+        <v>52953733.5588</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.00100779612160412</v>
+      </c>
+      <c r="G30"/>
+      <c r="H30"/>
+    </row>
+    <row r="31">
       <c r="A31" t="s">
         <v>71</v>
       </c>
       <c r="B31" t="s">
         <v>72</v>
       </c>
-      <c r="C31">
+      <c r="C31" t="n">
         <v>6</v>
       </c>
       <c r="D31" t="s">
         <v>10</v>
       </c>
-      <c r="E31">
+      <c r="E31" t="n">
         <v>151839507.637227</v>
       </c>
-      <c r="F31" s="1">
-        <v>2.8897540667866101E-3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F31" t="n">
+        <v>0.00288975406678661</v>
+      </c>
+      <c r="G31"/>
+      <c r="H31"/>
+    </row>
+    <row r="32">
       <c r="A32" t="s">
         <v>73</v>
       </c>
       <c r="B32" t="s">
         <v>74</v>
       </c>
-      <c r="C32">
+      <c r="C32" t="n">
         <v>6</v>
       </c>
       <c r="D32" t="s">
         <v>10</v>
       </c>
-      <c r="E32">
-        <v>40673442.377635002</v>
-      </c>
-      <c r="F32" s="1">
-        <v>7.74082103860594E-4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E32" t="n">
+        <v>40673442.377635</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.000774082103860594</v>
+      </c>
+      <c r="G32"/>
+      <c r="H32"/>
+    </row>
+    <row r="33">
       <c r="A33" t="s">
         <v>75</v>
       </c>
       <c r="B33" t="s">
         <v>76</v>
       </c>
-      <c r="C33">
+      <c r="C33" t="n">
         <v>6</v>
       </c>
       <c r="D33" t="s">
         <v>10</v>
       </c>
-      <c r="E33">
-        <v>255799202.82017899</v>
-      </c>
-      <c r="F33" s="1">
-        <v>4.8682770257426301E-3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E33" t="n">
+        <v>255799202.820179</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.00486827702574263</v>
+      </c>
+      <c r="G33"/>
+      <c r="H33"/>
+    </row>
+    <row r="34">
       <c r="A34" t="s">
         <v>77</v>
       </c>
       <c r="B34" t="s">
         <v>76</v>
       </c>
-      <c r="C34">
+      <c r="C34" t="n">
         <v>6</v>
       </c>
       <c r="D34" t="s">
         <v>10</v>
       </c>
-      <c r="E34">
+      <c r="E34" t="n">
         <v>3890671.85755551</v>
       </c>
-      <c r="F34" s="1">
-        <v>7.4045846155962802E-5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F34" t="n">
+        <v>0.0000740458461559628</v>
+      </c>
+      <c r="G34"/>
+      <c r="H34"/>
+    </row>
+    <row r="35">
       <c r="A35" t="s">
         <v>78</v>
       </c>
       <c r="B35" t="s">
         <v>79</v>
       </c>
-      <c r="C35">
+      <c r="C35" t="n">
         <v>6</v>
       </c>
       <c r="D35" t="s">
         <v>10</v>
       </c>
-      <c r="E35">
+      <c r="E35" t="n">
         <v>1116140.96826538</v>
       </c>
-      <c r="F35" s="1">
-        <v>2.1241987361142199E-5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F35" t="n">
+        <v>0.0000212419873611422</v>
+      </c>
+      <c r="G35"/>
+      <c r="H35"/>
+    </row>
+    <row r="36">
       <c r="A36" t="s">
         <v>80</v>
       </c>
       <c r="B36" t="s">
         <v>81</v>
       </c>
-      <c r="C36">
+      <c r="C36" t="n">
         <v>6</v>
       </c>
       <c r="D36" t="s">
         <v>10</v>
       </c>
-      <c r="E36">
-        <v>6443258.6000773199</v>
-      </c>
-      <c r="F36" s="1">
-        <v>1.2262574499000999E-4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E36" t="n">
+        <v>6443258.60007732</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.00012262574499001</v>
+      </c>
+      <c r="G36"/>
+      <c r="H36"/>
+    </row>
+    <row r="37">
       <c r="A37" t="s">
         <v>82</v>
       </c>
       <c r="B37" t="s">
         <v>83</v>
       </c>
-      <c r="C37">
+      <c r="C37" t="n">
         <v>6</v>
       </c>
       <c r="D37" t="s">
         <v>10</v>
       </c>
-      <c r="E37">
+      <c r="E37" t="n">
         <v>12447316</v>
       </c>
-      <c r="F37" s="1">
-        <v>2.3689277310827599E-4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F37" t="n">
+        <v>0.000236892773108276</v>
+      </c>
+      <c r="G37"/>
+      <c r="H37"/>
+    </row>
+    <row r="38">
       <c r="A38" t="s">
         <v>84</v>
       </c>
       <c r="B38" t="s">
         <v>85</v>
       </c>
-      <c r="C38">
+      <c r="C38" t="n">
         <v>6</v>
       </c>
       <c r="D38" t="s">
         <v>10</v>
       </c>
-      <c r="E38">
-        <v>895189.68451666005</v>
-      </c>
-      <c r="F38" s="1">
-        <v>1.7036923206824201E-5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E38" t="n">
+        <v>895189.68451666</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.0000170369232068242</v>
+      </c>
+      <c r="G38"/>
+      <c r="H38"/>
+    </row>
+    <row r="39">
       <c r="A39" t="s">
         <v>86</v>
       </c>
       <c r="B39" t="s">
         <v>87</v>
       </c>
-      <c r="C39">
+      <c r="C39" t="n">
         <v>6</v>
       </c>
       <c r="D39" t="s">
         <v>10</v>
       </c>
-      <c r="E39">
+      <c r="E39" t="n">
         <v>19862507.655536</v>
       </c>
-      <c r="F39" s="1">
-        <v>3.7801599311886101E-4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F39" t="n">
+        <v>0.000378015993118861</v>
+      </c>
+      <c r="G39"/>
+      <c r="H39"/>
+    </row>
+    <row r="40">
       <c r="A40" t="s">
         <v>88</v>
       </c>
       <c r="B40" t="s">
         <v>89</v>
       </c>
-      <c r="C40">
+      <c r="C40" t="n">
         <v>6</v>
       </c>
       <c r="D40" t="s">
         <v>10</v>
       </c>
-      <c r="E40">
+      <c r="E40" t="n">
         <v>0</v>
       </c>
-      <c r="F40" s="1">
+      <c r="F40" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G40"/>
+      <c r="H40"/>
+    </row>
+    <row r="41">
       <c r="A41" t="s">
         <v>90</v>
       </c>
       <c r="B41" t="s">
         <v>91</v>
       </c>
-      <c r="C41">
+      <c r="C41" t="n">
         <v>6</v>
       </c>
       <c r="D41" t="s">
         <v>10</v>
       </c>
-      <c r="E41">
-        <v>797380238.36563098</v>
-      </c>
-      <c r="F41" s="1">
-        <v>1.51754495417464E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E41" t="n">
+        <v>797380238.365631</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.0151754495417464</v>
+      </c>
+      <c r="G41"/>
+      <c r="H41"/>
+    </row>
+    <row r="42">
       <c r="A42" t="s">
         <v>92</v>
       </c>
       <c r="B42" t="s">
         <v>93</v>
       </c>
-      <c r="C42">
+      <c r="C42" t="n">
         <v>6</v>
       </c>
       <c r="D42" t="s">
         <v>10</v>
       </c>
-      <c r="E42">
-        <v>188310908.00212401</v>
-      </c>
-      <c r="F42" s="1">
-        <v>3.5838644413912699E-3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E42" t="n">
+        <v>188310908.002124</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.00358386444139127</v>
+      </c>
+      <c r="G42"/>
+      <c r="H42"/>
+    </row>
+    <row r="43">
       <c r="A43" t="s">
         <v>94</v>
       </c>
       <c r="B43" t="s">
         <v>95</v>
       </c>
-      <c r="C43">
+      <c r="C43" t="n">
         <v>6</v>
       </c>
       <c r="D43" t="s">
         <v>10</v>
       </c>
-      <c r="E43">
-        <v>198189759.11750701</v>
-      </c>
-      <c r="F43" s="1">
-        <v>3.7718751286628899E-3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E43" t="n">
+        <v>198189759.117507</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.00377187512866289</v>
+      </c>
+      <c r="G43"/>
+      <c r="H43"/>
+    </row>
+    <row r="44">
       <c r="A44" t="s">
         <v>96</v>
       </c>
       <c r="B44" t="s">
         <v>97</v>
       </c>
-      <c r="C44">
+      <c r="C44" t="n">
         <v>6</v>
       </c>
       <c r="D44" t="s">
         <v>10</v>
       </c>
-      <c r="E44">
-        <v>7070727.2240294004</v>
-      </c>
-      <c r="F44" s="1">
-        <v>1.3456749872763801E-4</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E44" t="n">
+        <v>7070727.2240294</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.000134567498727638</v>
+      </c>
+      <c r="G44"/>
+      <c r="H44"/>
+    </row>
+    <row r="45">
       <c r="A45" t="s">
         <v>98</v>
       </c>
       <c r="B45" t="s">
         <v>99</v>
       </c>
-      <c r="C45">
+      <c r="C45" t="n">
         <v>6</v>
       </c>
       <c r="D45" t="s">
         <v>10</v>
       </c>
-      <c r="E45">
-        <v>917547163.78339195</v>
-      </c>
-      <c r="F45" s="1">
-        <v>1.7462422588635299E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E45" t="n">
+        <v>917547163.783392</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.0174624225886353</v>
+      </c>
+      <c r="G45"/>
+      <c r="H45"/>
+    </row>
+    <row r="46">
       <c r="A46" t="s">
         <v>100</v>
       </c>
       <c r="B46" t="s">
         <v>101</v>
       </c>
-      <c r="C46">
+      <c r="C46" t="n">
         <v>6</v>
       </c>
       <c r="D46" t="s">
         <v>10</v>
       </c>
-      <c r="E46">
+      <c r="E46" t="n">
         <v>51905545</v>
       </c>
-      <c r="F46" s="1">
-        <v>9.8784737968783199E-4</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F46" t="n">
+        <v>0.000987847379687832</v>
+      </c>
+      <c r="G46"/>
+      <c r="H46"/>
+    </row>
+    <row r="47">
       <c r="A47" t="s">
         <v>102</v>
       </c>
       <c r="B47" t="s">
         <v>103</v>
       </c>
-      <c r="C47">
+      <c r="C47" t="n">
         <v>6</v>
       </c>
       <c r="D47" t="s">
         <v>10</v>
       </c>
-      <c r="E47">
+      <c r="E47" t="n">
         <v>0</v>
       </c>
-      <c r="F47" s="1">
+      <c r="F47" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G47"/>
+      <c r="H47"/>
+    </row>
+    <row r="48">
       <c r="A48" t="s">
         <v>104</v>
       </c>
       <c r="B48" t="s">
         <v>105</v>
       </c>
-      <c r="C48">
+      <c r="C48" t="n">
         <v>7</v>
       </c>
       <c r="D48" t="s">
         <v>106</v>
       </c>
-      <c r="E48">
-        <v>132516153.90385599</v>
-      </c>
-      <c r="F48" s="1">
-        <v>2.5219990542481199E-3</v>
+      <c r="E48" t="n">
+        <v>132516153.903856</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.00252199905424812</v>
       </c>
       <c r="G48" t="s">
         <v>107</v>
@@ -2969,24 +3004,24 @@
         <v>108</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49">
       <c r="A49" t="s">
         <v>109</v>
       </c>
       <c r="B49" t="s">
         <v>110</v>
       </c>
-      <c r="C49">
+      <c r="C49" t="n">
         <v>7</v>
       </c>
       <c r="D49" t="s">
         <v>106</v>
       </c>
-      <c r="E49">
-        <v>324690530.14709502</v>
-      </c>
-      <c r="F49" s="1">
-        <v>6.1793916125003796E-3</v>
+      <c r="E49" t="n">
+        <v>324690530.147095</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.00617939161250038</v>
       </c>
       <c r="G49" t="s">
         <v>107</v>
@@ -2995,24 +3030,24 @@
         <v>108</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50">
       <c r="A50" t="s">
         <v>111</v>
       </c>
       <c r="B50" t="s">
         <v>112</v>
       </c>
-      <c r="C50">
+      <c r="C50" t="n">
         <v>7</v>
       </c>
       <c r="D50" t="s">
         <v>106</v>
       </c>
-      <c r="E50">
+      <c r="E50" t="n">
         <v>18071808.922481</v>
       </c>
-      <c r="F50" s="1">
-        <v>3.4393606868576398E-4</v>
+      <c r="F50" t="n">
+        <v>0.000343936068685764</v>
       </c>
       <c r="G50" t="s">
         <v>107</v>
@@ -3021,24 +3056,24 @@
         <v>108</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51">
       <c r="A51" t="s">
         <v>113</v>
       </c>
       <c r="B51" t="s">
         <v>114</v>
       </c>
-      <c r="C51">
+      <c r="C51" t="n">
         <v>7</v>
       </c>
       <c r="D51" t="s">
         <v>106</v>
       </c>
-      <c r="E51">
-        <v>199007448.22953701</v>
-      </c>
-      <c r="F51" s="1">
-        <v>3.7874370892726299E-3</v>
+      <c r="E51" t="n">
+        <v>199007448.229537</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.00378743708927263</v>
       </c>
       <c r="G51" t="s">
         <v>107</v>
@@ -3047,24 +3082,24 @@
         <v>108</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52">
       <c r="A52" t="s">
         <v>115</v>
       </c>
       <c r="B52" t="s">
         <v>116</v>
       </c>
-      <c r="C52">
+      <c r="C52" t="n">
         <v>7</v>
       </c>
       <c r="D52" t="s">
         <v>106</v>
       </c>
-      <c r="E52">
-        <v>3896187.6210323898</v>
-      </c>
-      <c r="F52" s="1">
-        <v>7.4150820152432798E-5</v>
+      <c r="E52" t="n">
+        <v>3896187.62103239</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.0000741508201524328</v>
       </c>
       <c r="G52" t="s">
         <v>107</v>
@@ -3073,24 +3108,24 @@
         <v>108</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53">
       <c r="A53" t="s">
         <v>117</v>
       </c>
       <c r="B53" t="s">
         <v>118</v>
       </c>
-      <c r="C53">
+      <c r="C53" t="n">
         <v>7</v>
       </c>
       <c r="D53" t="s">
         <v>106</v>
       </c>
-      <c r="E53">
+      <c r="E53" t="n">
         <v>359.48</v>
       </c>
-      <c r="F53" s="1">
-        <v>6.8414920997396701E-9</v>
+      <c r="F53" t="n">
+        <v>0.00000000684149209973967</v>
       </c>
       <c r="G53" t="s">
         <v>107</v>
@@ -3099,24 +3134,24 @@
         <v>108</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54">
       <c r="A54" t="s">
         <v>119</v>
       </c>
       <c r="B54" t="s">
         <v>120</v>
       </c>
-      <c r="C54">
+      <c r="C54" t="n">
         <v>7</v>
       </c>
       <c r="D54" t="s">
         <v>106</v>
       </c>
-      <c r="E54">
+      <c r="E54" t="n">
         <v>1094949.70511382</v>
       </c>
-      <c r="F54" s="1">
-        <v>2.08386829786038E-5</v>
+      <c r="F54" t="n">
+        <v>0.0000208386829786038</v>
       </c>
       <c r="G54" t="s">
         <v>107</v>
@@ -3125,24 +3160,24 @@
         <v>108</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55">
       <c r="A55" t="s">
         <v>121</v>
       </c>
       <c r="B55" t="s">
         <v>122</v>
       </c>
-      <c r="C55">
+      <c r="C55" t="n">
         <v>7</v>
       </c>
       <c r="D55" t="s">
         <v>106</v>
       </c>
-      <c r="E55">
+      <c r="E55" t="n">
         <v>26052703.8901775</v>
       </c>
-      <c r="F55" s="1">
-        <v>4.9582554757289998E-4</v>
+      <c r="F55" t="n">
+        <v>0.0004958255475729</v>
       </c>
       <c r="G55" t="s">
         <v>123</v>
@@ -3151,24 +3186,24 @@
         <v>124</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56">
       <c r="A56" t="s">
         <v>125</v>
       </c>
       <c r="B56" t="s">
         <v>126</v>
       </c>
-      <c r="C56">
+      <c r="C56" t="n">
         <v>7</v>
       </c>
       <c r="D56" t="s">
         <v>106</v>
       </c>
-      <c r="E56">
+      <c r="E56" t="n">
         <v>1062238101.30717</v>
       </c>
-      <c r="F56" s="1">
-        <v>2.0216127679246298E-2</v>
+      <c r="F56" t="n">
+        <v>0.0202161276792463</v>
       </c>
       <c r="G56" t="s">
         <v>107</v>
@@ -3177,24 +3212,24 @@
         <v>127</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57">
       <c r="A57" t="s">
         <v>128</v>
       </c>
       <c r="B57" t="s">
         <v>129</v>
       </c>
-      <c r="C57">
+      <c r="C57" t="n">
         <v>7</v>
       </c>
       <c r="D57" t="s">
         <v>106</v>
       </c>
-      <c r="E57">
-        <v>79727930.374745101</v>
-      </c>
-      <c r="F57" s="1">
-        <v>1.51735285909484E-3</v>
+      <c r="E57" t="n">
+        <v>79727930.3747451</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.00151735285909484</v>
       </c>
       <c r="G57" t="s">
         <v>107</v>
@@ -3203,24 +3238,24 @@
         <v>130</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58">
       <c r="A58" t="s">
         <v>131</v>
       </c>
       <c r="B58" t="s">
         <v>132</v>
       </c>
-      <c r="C58">
+      <c r="C58" t="n">
         <v>7</v>
       </c>
       <c r="D58" t="s">
         <v>106</v>
       </c>
-      <c r="E58">
-        <v>246838361.11218801</v>
-      </c>
-      <c r="F58" s="1">
-        <v>4.6977375583112397E-3</v>
+      <c r="E58" t="n">
+        <v>246838361.112188</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.00469773755831124</v>
       </c>
       <c r="G58" t="s">
         <v>107</v>
@@ -3229,684 +3264,750 @@
         <v>133</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59">
       <c r="A59" t="s">
         <v>134</v>
       </c>
       <c r="B59" t="s">
         <v>135</v>
       </c>
-      <c r="C59">
+      <c r="C59" t="n">
         <v>7</v>
       </c>
       <c r="D59" t="s">
         <v>106</v>
       </c>
-      <c r="E59">
-        <v>538089364.62679994</v>
-      </c>
-      <c r="F59" s="1">
-        <v>1.02407203100261E-2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E59" t="n">
+        <v>538089364.6268</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.0102407203100261</v>
+      </c>
+      <c r="G59"/>
+      <c r="H59"/>
+    </row>
+    <row r="60">
       <c r="A60" t="s">
         <v>136</v>
       </c>
       <c r="B60" t="s">
         <v>137</v>
       </c>
-      <c r="C60">
+      <c r="C60" t="n">
         <v>7</v>
       </c>
       <c r="D60" t="s">
         <v>106</v>
       </c>
-      <c r="E60">
+      <c r="E60" t="n">
         <v>1723892056.85816</v>
       </c>
-      <c r="F60" s="1">
-        <v>3.2808484165458597E-2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F60" t="n">
+        <v>0.0328084841654586</v>
+      </c>
+      <c r="G60"/>
+      <c r="H60"/>
+    </row>
+    <row r="61">
       <c r="A61" t="s">
         <v>138</v>
       </c>
       <c r="B61" t="s">
         <v>139</v>
       </c>
-      <c r="C61">
+      <c r="C61" t="n">
         <v>7</v>
       </c>
       <c r="D61" t="s">
         <v>106</v>
       </c>
-      <c r="E61">
-        <v>313017855.03270602</v>
-      </c>
-      <c r="F61" s="1">
-        <v>5.9572415218752603E-3</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E61" t="n">
+        <v>313017855.032706</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.00595724152187526</v>
+      </c>
+      <c r="G61"/>
+      <c r="H61"/>
+    </row>
+    <row r="62">
       <c r="A62" t="s">
         <v>140</v>
       </c>
       <c r="B62" t="s">
         <v>141</v>
       </c>
-      <c r="C62">
+      <c r="C62" t="n">
         <v>7</v>
       </c>
       <c r="D62" t="s">
         <v>106</v>
       </c>
-      <c r="E62">
-        <v>224568280.15644401</v>
-      </c>
-      <c r="F62" s="1">
-        <v>4.2739015092423402E-3</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E62" t="n">
+        <v>224568280.156444</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.00427390150924234</v>
+      </c>
+      <c r="G62"/>
+      <c r="H62"/>
+    </row>
+    <row r="63">
       <c r="A63" t="s">
         <v>142</v>
       </c>
       <c r="B63" t="s">
         <v>143</v>
       </c>
-      <c r="C63">
+      <c r="C63" t="n">
         <v>7</v>
       </c>
       <c r="D63" t="s">
         <v>106</v>
       </c>
-      <c r="E63">
-        <v>144637948.51505899</v>
-      </c>
-      <c r="F63" s="1">
-        <v>2.75269662314545E-3</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E63" t="n">
+        <v>144637948.515059</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.00275269662314545</v>
+      </c>
+      <c r="G63"/>
+      <c r="H63"/>
+    </row>
+    <row r="64">
       <c r="A64" t="s">
         <v>144</v>
       </c>
       <c r="B64" t="s">
         <v>145</v>
       </c>
-      <c r="C64">
+      <c r="C64" t="n">
         <v>7</v>
       </c>
       <c r="D64" t="s">
         <v>106</v>
       </c>
-      <c r="E64">
-        <v>40330034.927223101</v>
-      </c>
-      <c r="F64" s="1">
-        <v>7.6754649865589796E-4</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E64" t="n">
+        <v>40330034.9272231</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.000767546498655898</v>
+      </c>
+      <c r="G64"/>
+      <c r="H64"/>
+    </row>
+    <row r="65">
       <c r="A65" t="s">
         <v>146</v>
       </c>
       <c r="B65" t="s">
         <v>147</v>
       </c>
-      <c r="C65">
+      <c r="C65" t="n">
         <v>7</v>
       </c>
       <c r="D65" t="s">
         <v>106</v>
       </c>
-      <c r="E65">
-        <v>30512698.504004799</v>
-      </c>
-      <c r="F65" s="1">
-        <v>5.8070653654413904E-4</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E65" t="n">
+        <v>30512698.5040048</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.000580706536544139</v>
+      </c>
+      <c r="G65"/>
+      <c r="H65"/>
+    </row>
+    <row r="66">
       <c r="A66" t="s">
         <v>148</v>
       </c>
       <c r="B66" t="s">
         <v>149</v>
       </c>
-      <c r="C66">
+      <c r="C66" t="n">
         <v>7</v>
       </c>
       <c r="D66" t="s">
         <v>106</v>
       </c>
-      <c r="E66">
-        <v>15060098.457665199</v>
-      </c>
-      <c r="F66" s="1">
-        <v>2.8661829481311401E-4</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E66" t="n">
+        <v>15060098.4576652</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.000286618294813114</v>
+      </c>
+      <c r="G66"/>
+      <c r="H66"/>
+    </row>
+    <row r="67">
       <c r="A67" t="s">
         <v>150</v>
       </c>
       <c r="B67" t="s">
         <v>151</v>
       </c>
-      <c r="C67">
+      <c r="C67" t="n">
         <v>7</v>
       </c>
       <c r="D67" t="s">
         <v>106</v>
       </c>
-      <c r="E67">
-        <v>31720312.910032399</v>
-      </c>
-      <c r="F67" s="1">
-        <v>6.0368941297223001E-4</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E67" t="n">
+        <v>31720312.9100324</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.00060368941297223</v>
+      </c>
+      <c r="G67"/>
+      <c r="H67"/>
+    </row>
+    <row r="68">
       <c r="A68" t="s">
         <v>152</v>
       </c>
       <c r="B68" t="s">
         <v>153</v>
       </c>
-      <c r="C68">
+      <c r="C68" t="n">
         <v>7</v>
       </c>
       <c r="D68" t="s">
         <v>106</v>
       </c>
-      <c r="E68">
-        <v>78435320.855727598</v>
-      </c>
-      <c r="F68" s="1">
-        <v>1.4927523867113799E-3</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E68" t="n">
+        <v>78435320.8557276</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.00149275238671138</v>
+      </c>
+      <c r="G68"/>
+      <c r="H68"/>
+    </row>
+    <row r="69">
       <c r="A69" t="s">
         <v>154</v>
       </c>
       <c r="B69" t="s">
         <v>155</v>
       </c>
-      <c r="C69">
+      <c r="C69" t="n">
         <v>7</v>
       </c>
       <c r="D69" t="s">
         <v>106</v>
       </c>
-      <c r="E69">
-        <v>90677958.536440402</v>
-      </c>
-      <c r="F69" s="1">
-        <v>1.72574979678307E-3</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E69" t="n">
+        <v>90677958.5364404</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.00172574979678307</v>
+      </c>
+      <c r="G69"/>
+      <c r="H69"/>
+    </row>
+    <row r="70">
       <c r="A70" t="s">
         <v>156</v>
       </c>
       <c r="B70" t="s">
         <v>157</v>
       </c>
-      <c r="C70">
+      <c r="C70" t="n">
         <v>7</v>
       </c>
       <c r="D70" t="s">
         <v>106</v>
       </c>
-      <c r="E70">
+      <c r="E70" t="n">
         <v>31740669.6500316</v>
       </c>
-      <c r="F70" s="1">
-        <v>6.0407683501484898E-4</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F70" t="n">
+        <v>0.000604076835014849</v>
+      </c>
+      <c r="G70"/>
+      <c r="H70"/>
+    </row>
+    <row r="71">
       <c r="A71" t="s">
         <v>158</v>
       </c>
       <c r="B71" t="s">
         <v>159</v>
       </c>
-      <c r="C71">
+      <c r="C71" t="n">
         <v>7</v>
       </c>
       <c r="D71" t="s">
         <v>106</v>
       </c>
-      <c r="E71">
-        <v>7723212.9211023198</v>
-      </c>
-      <c r="F71" s="1">
-        <v>1.46985368266187E-4</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E71" t="n">
+        <v>7723212.92110232</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.000146985368266187</v>
+      </c>
+      <c r="G71"/>
+      <c r="H71"/>
+    </row>
+    <row r="72">
       <c r="A72" t="s">
         <v>160</v>
       </c>
       <c r="B72" t="s">
         <v>161</v>
       </c>
-      <c r="C72">
+      <c r="C72" t="n">
         <v>7</v>
       </c>
       <c r="D72" t="s">
         <v>106</v>
       </c>
-      <c r="E72">
-        <v>5591903.5299155796</v>
-      </c>
-      <c r="F72" s="1">
-        <v>1.0642306615785E-4</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E72" t="n">
+        <v>5591903.52991558</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.00010642306615785</v>
+      </c>
+      <c r="G72"/>
+      <c r="H72"/>
+    </row>
+    <row r="73">
       <c r="A73" t="s">
         <v>162</v>
       </c>
       <c r="B73" t="s">
         <v>163</v>
       </c>
-      <c r="C73">
+      <c r="C73" t="n">
         <v>7</v>
       </c>
       <c r="D73" t="s">
         <v>106</v>
       </c>
-      <c r="E73">
-        <v>2051706.5509525801</v>
-      </c>
-      <c r="F73" s="1">
-        <v>3.9047329919122601E-5</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E73" t="n">
+        <v>2051706.55095258</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.0000390473299191226</v>
+      </c>
+      <c r="G73"/>
+      <c r="H73"/>
+    </row>
+    <row r="74">
       <c r="A74" t="s">
         <v>164</v>
       </c>
       <c r="B74" t="s">
         <v>165</v>
       </c>
-      <c r="C74">
+      <c r="C74" t="n">
         <v>7</v>
       </c>
       <c r="D74" t="s">
         <v>106</v>
       </c>
-      <c r="E74">
-        <v>3131285.8436734201</v>
-      </c>
-      <c r="F74" s="1">
-        <v>5.95934888214041E-5</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E74" t="n">
+        <v>3131285.84367342</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.0000595934888214041</v>
+      </c>
+      <c r="G74"/>
+      <c r="H74"/>
+    </row>
+    <row r="75">
       <c r="A75" t="s">
         <v>166</v>
       </c>
       <c r="B75" t="s">
         <v>167</v>
       </c>
-      <c r="C75">
+      <c r="C75" t="n">
         <v>7</v>
       </c>
       <c r="D75" t="s">
         <v>106</v>
       </c>
-      <c r="E75">
-        <v>1460803.1214294699</v>
-      </c>
-      <c r="F75" s="1">
-        <v>2.7801471610478301E-5</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E75" t="n">
+        <v>1460803.12142947</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.0000278014716104783</v>
+      </c>
+      <c r="G75"/>
+      <c r="H75"/>
+    </row>
+    <row r="76">
       <c r="A76" t="s">
         <v>168</v>
       </c>
       <c r="B76" t="s">
         <v>169</v>
       </c>
-      <c r="C76">
+      <c r="C76" t="n">
         <v>7</v>
       </c>
       <c r="D76" t="s">
         <v>106</v>
       </c>
-      <c r="E76">
+      <c r="E76" t="n">
         <v>141800656.964746</v>
       </c>
-      <c r="F76" s="1">
-        <v>2.6986983263664402E-3</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F76" t="n">
+        <v>0.00269869832636644</v>
+      </c>
+      <c r="G76"/>
+      <c r="H76"/>
+    </row>
+    <row r="77">
       <c r="A77" t="s">
         <v>170</v>
       </c>
       <c r="B77" t="s">
         <v>171</v>
       </c>
-      <c r="C77">
+      <c r="C77" t="n">
         <v>7</v>
       </c>
       <c r="D77" t="s">
         <v>106</v>
       </c>
-      <c r="E77">
-        <v>74648654.763577893</v>
-      </c>
-      <c r="F77" s="1">
-        <v>1.42068594030603E-3</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E77" t="n">
+        <v>74648654.7635779</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0.00142068594030603</v>
+      </c>
+      <c r="G77"/>
+      <c r="H77"/>
+    </row>
+    <row r="78">
       <c r="A78" t="s">
         <v>172</v>
       </c>
       <c r="B78" t="s">
         <v>173</v>
       </c>
-      <c r="C78">
+      <c r="C78" t="n">
         <v>7</v>
       </c>
       <c r="D78" t="s">
         <v>106</v>
       </c>
-      <c r="E78">
-        <v>336986631.40210402</v>
-      </c>
-      <c r="F78" s="1">
-        <v>6.4134065217964203E-3</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E78" t="n">
+        <v>336986631.402104</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.00641340652179642</v>
+      </c>
+      <c r="G78"/>
+      <c r="H78"/>
+    </row>
+    <row r="79">
       <c r="A79" t="s">
         <v>174</v>
       </c>
       <c r="B79" t="s">
         <v>175</v>
       </c>
-      <c r="C79">
+      <c r="C79" t="n">
         <v>7</v>
       </c>
       <c r="D79" t="s">
         <v>106</v>
       </c>
-      <c r="E79">
+      <c r="E79" t="n">
         <v>116297089.846065</v>
       </c>
-      <c r="F79" s="1">
-        <v>2.2133237493172499E-3</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F79" t="n">
+        <v>0.00221332374931725</v>
+      </c>
+      <c r="G79"/>
+      <c r="H79"/>
+    </row>
+    <row r="80">
       <c r="A80" t="s">
         <v>176</v>
       </c>
       <c r="B80" t="s">
         <v>177</v>
       </c>
-      <c r="C80">
+      <c r="C80" t="n">
         <v>7</v>
       </c>
       <c r="D80" t="s">
         <v>106</v>
       </c>
-      <c r="E80">
-        <v>91040112.784049496</v>
-      </c>
-      <c r="F80" s="1">
-        <v>1.73264218418683E-3</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E80" t="n">
+        <v>91040112.7840495</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.00173264218418683</v>
+      </c>
+      <c r="G80"/>
+      <c r="H80"/>
+    </row>
+    <row r="81">
       <c r="A81" t="s">
         <v>178</v>
       </c>
       <c r="B81" t="s">
         <v>179</v>
       </c>
-      <c r="C81">
+      <c r="C81" t="n">
         <v>7</v>
       </c>
       <c r="D81" t="s">
         <v>106</v>
       </c>
-      <c r="E81">
-        <v>94855696.604492605</v>
-      </c>
-      <c r="F81" s="1">
-        <v>1.8052589822380601E-3</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E81" t="n">
+        <v>94855696.6044926</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.00180525898223806</v>
+      </c>
+      <c r="G81"/>
+      <c r="H81"/>
+    </row>
+    <row r="82">
       <c r="A82" t="s">
         <v>180</v>
       </c>
       <c r="B82" t="s">
         <v>181</v>
       </c>
-      <c r="C82">
+      <c r="C82" t="n">
         <v>7</v>
       </c>
       <c r="D82" t="s">
         <v>106</v>
       </c>
-      <c r="E82">
-        <v>87385969.086150005</v>
-      </c>
-      <c r="F82" s="1">
-        <v>1.6630978555997301E-3</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E82" t="n">
+        <v>87385969.08615</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0.00166309785559973</v>
+      </c>
+      <c r="G82"/>
+      <c r="H82"/>
+    </row>
+    <row r="83">
       <c r="A83" t="s">
         <v>182</v>
       </c>
       <c r="B83" t="s">
         <v>183</v>
       </c>
-      <c r="C83">
+      <c r="C83" t="n">
         <v>7</v>
       </c>
       <c r="D83" t="s">
         <v>106</v>
       </c>
-      <c r="E83">
-        <v>567990562.55233204</v>
-      </c>
-      <c r="F83" s="1">
-        <v>1.0809788990843601E-2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E83" t="n">
+        <v>567990562.552332</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0.0108097889908436</v>
+      </c>
+      <c r="G83"/>
+      <c r="H83"/>
+    </row>
+    <row r="84">
       <c r="A84" t="s">
         <v>184</v>
       </c>
       <c r="B84" t="s">
         <v>185</v>
       </c>
-      <c r="C84">
+      <c r="C84" t="n">
         <v>7</v>
       </c>
       <c r="D84" t="s">
         <v>106</v>
       </c>
-      <c r="E84">
-        <v>129199624.37953401</v>
-      </c>
-      <c r="F84" s="1">
-        <v>2.4588800753363501E-3</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E84" t="n">
+        <v>129199624.379534</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0.00245888007533635</v>
+      </c>
+      <c r="G84"/>
+      <c r="H84"/>
+    </row>
+    <row r="85">
       <c r="A85" t="s">
         <v>186</v>
       </c>
       <c r="B85" t="s">
         <v>187</v>
       </c>
-      <c r="C85">
+      <c r="C85" t="n">
         <v>7</v>
       </c>
       <c r="D85" t="s">
         <v>106</v>
       </c>
-      <c r="E85">
-        <v>102765684.83185101</v>
-      </c>
-      <c r="F85" s="1">
-        <v>1.9557989899339199E-3</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E85" t="n">
+        <v>102765684.831851</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0.00195579898993392</v>
+      </c>
+      <c r="G85"/>
+      <c r="H85"/>
+    </row>
+    <row r="86">
       <c r="A86" t="s">
         <v>188</v>
       </c>
       <c r="B86" t="s">
         <v>189</v>
       </c>
-      <c r="C86">
+      <c r="C86" t="n">
         <v>7</v>
       </c>
       <c r="D86" t="s">
         <v>106</v>
       </c>
-      <c r="E86">
-        <v>36789330.482100002</v>
-      </c>
-      <c r="F86" s="1">
-        <v>7.0016110450650602E-4</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E86" t="n">
+        <v>36789330.4821</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0.000700161104506506</v>
+      </c>
+      <c r="G86"/>
+      <c r="H86"/>
+    </row>
+    <row r="87">
       <c r="A87" t="s">
         <v>190</v>
       </c>
       <c r="B87" t="s">
         <v>191</v>
       </c>
-      <c r="C87">
+      <c r="C87" t="n">
         <v>7</v>
       </c>
       <c r="D87" t="s">
         <v>106</v>
       </c>
-      <c r="E87">
-        <v>46560113.996771798</v>
-      </c>
-      <c r="F87" s="1">
-        <v>8.8611508866110096E-4</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E87" t="n">
+        <v>46560113.9967718</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0.000886115088661101</v>
+      </c>
+      <c r="G87"/>
+      <c r="H87"/>
+    </row>
+    <row r="88">
       <c r="A88" t="s">
         <v>192</v>
       </c>
       <c r="B88" t="s">
         <v>193</v>
       </c>
-      <c r="C88">
+      <c r="C88" t="n">
         <v>7</v>
       </c>
       <c r="D88" t="s">
         <v>106</v>
       </c>
-      <c r="E88">
-        <v>6825702.2930338904</v>
-      </c>
-      <c r="F88" s="1">
-        <v>1.2990427370915299E-4</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E88" t="n">
+        <v>6825702.29303389</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0.000129904273709153</v>
+      </c>
+      <c r="G88"/>
+      <c r="H88"/>
+    </row>
+    <row r="89">
       <c r="A89" t="s">
         <v>194</v>
       </c>
       <c r="B89" t="s">
         <v>195</v>
       </c>
-      <c r="C89">
+      <c r="C89" t="n">
         <v>7</v>
       </c>
       <c r="D89" t="s">
         <v>106</v>
       </c>
-      <c r="E89">
-        <v>1746221.4730961199</v>
-      </c>
-      <c r="F89" s="1">
-        <v>3.3233449461952999E-5</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E89" t="n">
+        <v>1746221.47309612</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0.000033233449461953</v>
+      </c>
+      <c r="G89"/>
+      <c r="H89"/>
+    </row>
+    <row r="90">
       <c r="A90" t="s">
         <v>196</v>
       </c>
       <c r="B90" t="s">
         <v>197</v>
       </c>
-      <c r="C90">
+      <c r="C90" t="n">
         <v>7</v>
       </c>
       <c r="D90" t="s">
         <v>106</v>
       </c>
-      <c r="E90">
+      <c r="E90" t="n">
         <v>12029166.901541</v>
       </c>
-      <c r="F90" s="1">
-        <v>2.2893471214905601E-4</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F90" t="n">
+        <v>0.000228934712149056</v>
+      </c>
+      <c r="G90"/>
+      <c r="H90"/>
+    </row>
+    <row r="91">
       <c r="A91" t="s">
         <v>198</v>
       </c>
       <c r="B91" t="s">
         <v>199</v>
       </c>
-      <c r="C91">
+      <c r="C91" t="n">
         <v>7</v>
       </c>
       <c r="D91" t="s">
         <v>106</v>
       </c>
-      <c r="E91">
+      <c r="E91" t="n">
         <v>200265.063268258</v>
       </c>
-      <c r="F91" s="1">
-        <v>3.8113715594849601E-6</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F91" t="n">
+        <v>0.00000381137155948496</v>
+      </c>
+      <c r="G91"/>
+      <c r="H91"/>
+    </row>
+    <row r="92">
       <c r="A92" t="s">
         <v>200</v>
       </c>
       <c r="B92" t="s">
         <v>201</v>
       </c>
-      <c r="C92">
+      <c r="C92" t="n">
         <v>9</v>
       </c>
       <c r="D92" t="s">
         <v>202</v>
       </c>
-      <c r="E92">
-        <v>889280639.61666906</v>
-      </c>
-      <c r="F92" s="1">
-        <v>1.6924464421911901E-2</v>
+      <c r="E92" t="n">
+        <v>889280639.616669</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0.0169244644219119</v>
       </c>
       <c r="G92" t="s">
         <v>203</v>
@@ -3915,24 +4016,24 @@
         <v>204</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93">
       <c r="A93" t="s">
         <v>205</v>
       </c>
       <c r="B93" t="s">
         <v>206</v>
       </c>
-      <c r="C93">
+      <c r="C93" t="n">
         <v>9</v>
       </c>
       <c r="D93" t="s">
         <v>202</v>
       </c>
-      <c r="E93">
+      <c r="E93" t="n">
         <v>2085296429.35939</v>
       </c>
-      <c r="F93" s="1">
-        <v>3.9686600219977899E-2</v>
+      <c r="F93" t="n">
+        <v>0.0396866002199779</v>
       </c>
       <c r="G93" t="s">
         <v>203</v>
@@ -3941,24 +4042,24 @@
         <v>207</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94">
       <c r="A94" t="s">
         <v>208</v>
       </c>
       <c r="B94" t="s">
         <v>209</v>
       </c>
-      <c r="C94">
+      <c r="C94" t="n">
         <v>9</v>
       </c>
       <c r="D94" t="s">
         <v>202</v>
       </c>
-      <c r="E94">
-        <v>9840830.3911304995</v>
-      </c>
-      <c r="F94" s="1">
-        <v>1.8728709073049201E-4</v>
+      <c r="E94" t="n">
+        <v>9840830.3911305</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0.000187287090730492</v>
       </c>
       <c r="G94" t="s">
         <v>203</v>
@@ -3967,24 +4068,24 @@
         <v>204</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95">
       <c r="A95" t="s">
         <v>210</v>
       </c>
       <c r="B95" t="s">
         <v>211</v>
       </c>
-      <c r="C95">
+      <c r="C95" t="n">
         <v>9</v>
       </c>
       <c r="D95" t="s">
         <v>202</v>
       </c>
-      <c r="E95">
-        <v>315987400.41969001</v>
-      </c>
-      <c r="F95" s="1">
-        <v>6.0137568253827304E-3</v>
+      <c r="E95" t="n">
+        <v>315987400.41969</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0.00601375682538273</v>
       </c>
       <c r="G95" t="s">
         <v>203</v>
@@ -3993,24 +4094,24 @@
         <v>207</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96">
       <c r="A96" t="s">
         <v>212</v>
       </c>
       <c r="B96" t="s">
         <v>213</v>
       </c>
-      <c r="C96">
+      <c r="C96" t="n">
         <v>9</v>
       </c>
       <c r="D96" t="s">
         <v>202</v>
       </c>
-      <c r="E96">
-        <v>304185.93066697801</v>
-      </c>
-      <c r="F96" s="1">
-        <v>5.78915556222903E-6</v>
+      <c r="E96" t="n">
+        <v>304185.930666978</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0.00000578915556222903</v>
       </c>
       <c r="G96" t="s">
         <v>203</v>
@@ -4019,24 +4120,24 @@
         <v>214</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97">
       <c r="A97" t="s">
         <v>215</v>
       </c>
       <c r="B97" t="s">
         <v>216</v>
       </c>
-      <c r="C97">
+      <c r="C97" t="n">
         <v>9</v>
       </c>
       <c r="D97" t="s">
         <v>202</v>
       </c>
-      <c r="E97">
-        <v>20438974.276027899</v>
-      </c>
-      <c r="F97" s="1">
-        <v>3.8898709534946902E-4</v>
+      <c r="E97" t="n">
+        <v>20438974.2760279</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0.000388987095349469</v>
       </c>
       <c r="G97" t="s">
         <v>203</v>
@@ -4045,23 +4146,23 @@
         <v>214</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98">
       <c r="A98" t="s">
         <v>217</v>
       </c>
       <c r="B98" t="s">
         <v>218</v>
       </c>
-      <c r="C98">
+      <c r="C98" t="n">
         <v>9</v>
       </c>
       <c r="D98" t="s">
         <v>202</v>
       </c>
-      <c r="E98">
+      <c r="E98" t="n">
         <v>0</v>
       </c>
-      <c r="F98" s="1">
+      <c r="F98" t="n">
         <v>0</v>
       </c>
       <c r="G98" t="s">
@@ -4071,24 +4172,24 @@
         <v>214</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99">
       <c r="A99" t="s">
         <v>219</v>
       </c>
       <c r="B99" t="s">
         <v>220</v>
       </c>
-      <c r="C99">
+      <c r="C99" t="n">
         <v>9</v>
       </c>
       <c r="D99" t="s">
         <v>202</v>
       </c>
-      <c r="E99">
-        <v>3937458.9193126098</v>
-      </c>
-      <c r="F99" s="1">
-        <v>7.4936280431530796E-5</v>
+      <c r="E99" t="n">
+        <v>3937458.91931261</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0.0000749362804315308</v>
       </c>
       <c r="G99" t="s">
         <v>203</v>
@@ -4097,24 +4198,24 @@
         <v>214</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100">
       <c r="A100" t="s">
         <v>221</v>
       </c>
       <c r="B100" t="s">
         <v>222</v>
       </c>
-      <c r="C100">
+      <c r="C100" t="n">
         <v>10</v>
       </c>
       <c r="D100" t="s">
         <v>223</v>
       </c>
-      <c r="E100">
-        <v>362721930.06596601</v>
-      </c>
-      <c r="F100" s="1">
-        <v>6.9031913289991902E-3</v>
+      <c r="E100" t="n">
+        <v>362721930.065966</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0.00690319132899919</v>
       </c>
       <c r="G100" t="s">
         <v>224</v>
@@ -4123,24 +4224,24 @@
         <v>225</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101">
       <c r="A101" t="s">
         <v>226</v>
       </c>
       <c r="B101" t="s">
         <v>227</v>
       </c>
-      <c r="C101">
+      <c r="C101" t="n">
         <v>10</v>
       </c>
       <c r="D101" t="s">
         <v>223</v>
       </c>
-      <c r="E101">
-        <v>6148323136.0302401</v>
-      </c>
-      <c r="F101" s="1">
-        <v>0.11701264093078199</v>
+      <c r="E101" t="n">
+        <v>6148323136.03024</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0.117012640930782</v>
       </c>
       <c r="G101" t="s">
         <v>224</v>
@@ -4149,24 +4250,24 @@
         <v>228</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102">
       <c r="A102" t="s">
         <v>229</v>
       </c>
       <c r="B102" t="s">
         <v>230</v>
       </c>
-      <c r="C102">
+      <c r="C102" t="n">
         <v>10</v>
       </c>
       <c r="D102" t="s">
         <v>223</v>
       </c>
-      <c r="E102">
+      <c r="E102" t="n">
         <v>116582679.302457</v>
       </c>
-      <c r="F102" s="1">
-        <v>2.2187589835713901E-3</v>
+      <c r="F102" t="n">
+        <v>0.00221875898357139</v>
       </c>
       <c r="G102" t="s">
         <v>224</v>
@@ -4175,24 +4276,24 @@
         <v>231</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103">
       <c r="A103" t="s">
         <v>232</v>
       </c>
       <c r="B103" t="s">
         <v>233</v>
       </c>
-      <c r="C103">
+      <c r="C103" t="n">
         <v>10</v>
       </c>
       <c r="D103" t="s">
         <v>223</v>
       </c>
-      <c r="E103">
-        <v>175763081.95228699</v>
-      </c>
-      <c r="F103" s="1">
-        <v>3.3450587977146701E-3</v>
+      <c r="E103" t="n">
+        <v>175763081.952287</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0.00334505879771467</v>
       </c>
       <c r="G103" t="s">
         <v>224</v>
@@ -4201,24 +4302,24 @@
         <v>234</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104">
       <c r="A104" t="s">
         <v>235</v>
       </c>
       <c r="B104" t="s">
         <v>236</v>
       </c>
-      <c r="C104">
+      <c r="C104" t="n">
         <v>10</v>
       </c>
       <c r="D104" t="s">
         <v>223</v>
       </c>
-      <c r="E104">
-        <v>185174716.90862799</v>
-      </c>
-      <c r="F104" s="1">
-        <v>3.5241775976463398E-3</v>
+      <c r="E104" t="n">
+        <v>185174716.908628</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0.00352417759764634</v>
       </c>
       <c r="G104" t="s">
         <v>224</v>
@@ -4227,24 +4328,24 @@
         <v>237</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105">
       <c r="A105" t="s">
         <v>238</v>
       </c>
       <c r="B105" t="s">
         <v>239</v>
       </c>
-      <c r="C105">
+      <c r="C105" t="n">
         <v>10</v>
       </c>
       <c r="D105" t="s">
         <v>223</v>
       </c>
-      <c r="E105">
-        <v>956144.57037445903</v>
-      </c>
-      <c r="F105" s="1">
-        <v>1.81969943374481E-5</v>
+      <c r="E105" t="n">
+        <v>956144.570374459</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0.0000181969943374481</v>
       </c>
       <c r="G105" t="s">
         <v>224</v>
@@ -4253,24 +4354,24 @@
         <v>228</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106">
       <c r="A106" t="s">
         <v>240</v>
       </c>
       <c r="B106" t="s">
         <v>241</v>
       </c>
-      <c r="C106">
+      <c r="C106" t="n">
         <v>10</v>
       </c>
       <c r="D106" t="s">
         <v>223</v>
       </c>
-      <c r="E106">
-        <v>1588.4929999999999</v>
-      </c>
-      <c r="F106" s="1">
-        <v>3.0231618754845203E-8</v>
+      <c r="E106" t="n">
+        <v>1588.493</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0.0000000302316187548452</v>
       </c>
       <c r="G106" t="s">
         <v>224</v>
@@ -4279,24 +4380,24 @@
         <v>231</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107">
       <c r="A107" t="s">
         <v>242</v>
       </c>
       <c r="B107" t="s">
         <v>243</v>
       </c>
-      <c r="C107">
+      <c r="C107" t="n">
         <v>10</v>
       </c>
       <c r="D107" t="s">
         <v>223</v>
       </c>
-      <c r="E107">
-        <v>200.71799999999999</v>
-      </c>
-      <c r="F107" s="1">
-        <v>3.8199916859784899E-9</v>
+      <c r="E107" t="n">
+        <v>200.718</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0.00000000381999168597849</v>
       </c>
       <c r="G107" t="s">
         <v>224</v>
@@ -4305,24 +4406,24 @@
         <v>234</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108">
       <c r="A108" t="s">
         <v>244</v>
       </c>
       <c r="B108" t="s">
         <v>245</v>
       </c>
-      <c r="C108">
+      <c r="C108" t="n">
         <v>10</v>
       </c>
       <c r="D108" t="s">
         <v>223</v>
       </c>
-      <c r="E108">
+      <c r="E108" t="n">
         <v>122.483</v>
       </c>
-      <c r="F108" s="1">
-        <v>2.3310517326483099E-9</v>
+      <c r="F108" t="n">
+        <v>0.00000000233105173264831</v>
       </c>
       <c r="G108" t="s">
         <v>224</v>
@@ -4331,24 +4432,24 @@
         <v>237</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109">
       <c r="A109" t="s">
         <v>246</v>
       </c>
       <c r="B109" t="s">
         <v>247</v>
       </c>
-      <c r="C109">
+      <c r="C109" t="n">
         <v>10</v>
       </c>
       <c r="D109" t="s">
         <v>223</v>
       </c>
-      <c r="E109">
-        <v>568834664.08961904</v>
-      </c>
-      <c r="F109" s="1">
-        <v>1.08258536230867E-2</v>
+      <c r="E109" t="n">
+        <v>568834664.089619</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0.0108258536230867</v>
       </c>
       <c r="G109" t="s">
         <v>224</v>
@@ -4357,24 +4458,24 @@
         <v>248</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110">
       <c r="A110" t="s">
         <v>249</v>
       </c>
       <c r="B110" t="s">
         <v>250</v>
       </c>
-      <c r="C110">
+      <c r="C110" t="n">
         <v>10</v>
       </c>
       <c r="D110" t="s">
         <v>223</v>
       </c>
-      <c r="E110">
-        <v>704058518.83248305</v>
-      </c>
-      <c r="F110" s="1">
-        <v>1.33993846510149E-2</v>
+      <c r="E110" t="n">
+        <v>704058518.832483</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0.0133993846510149</v>
       </c>
       <c r="G110" t="s">
         <v>224</v>
@@ -4383,23 +4484,23 @@
         <v>251</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111">
       <c r="A111" t="s">
         <v>252</v>
       </c>
       <c r="B111" t="s">
         <v>253</v>
       </c>
-      <c r="C111">
+      <c r="C111" t="n">
         <v>10</v>
       </c>
       <c r="D111" t="s">
         <v>223</v>
       </c>
-      <c r="E111">
+      <c r="E111" t="n">
         <v>0</v>
       </c>
-      <c r="F111" s="1">
+      <c r="F111" t="n">
         <v>0</v>
       </c>
       <c r="G111" t="s">
@@ -4409,44 +4510,46 @@
         <v>228</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112">
       <c r="A112" t="s">
         <v>254</v>
       </c>
       <c r="B112" t="s">
         <v>255</v>
       </c>
-      <c r="C112">
+      <c r="C112" t="n">
         <v>10</v>
       </c>
       <c r="D112" t="s">
         <v>223</v>
       </c>
-      <c r="E112">
-        <v>9573.7620000000006</v>
-      </c>
-      <c r="F112" s="1">
-        <v>1.82204342627651E-7</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E112" t="n">
+        <v>9573.762</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0.000000182204342627651</v>
+      </c>
+      <c r="G112"/>
+      <c r="H112"/>
+    </row>
+    <row r="113">
       <c r="A113" t="s">
         <v>256</v>
       </c>
       <c r="B113" t="s">
         <v>257</v>
       </c>
-      <c r="C113">
+      <c r="C113" t="n">
         <v>11</v>
       </c>
       <c r="D113" t="s">
         <v>258</v>
       </c>
-      <c r="E113">
+      <c r="E113" t="n">
         <v>143573922.853634</v>
       </c>
-      <c r="F113" s="1">
-        <v>2.73244647527477E-3</v>
+      <c r="F113" t="n">
+        <v>0.00273244647527477</v>
       </c>
       <c r="G113" t="s">
         <v>123</v>
@@ -4455,24 +4558,24 @@
         <v>259</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114">
       <c r="A114" t="s">
         <v>260</v>
       </c>
       <c r="B114" t="s">
         <v>261</v>
       </c>
-      <c r="C114">
+      <c r="C114" t="n">
         <v>11</v>
       </c>
       <c r="D114" t="s">
         <v>258</v>
       </c>
-      <c r="E114">
-        <v>61046046.867794096</v>
-      </c>
-      <c r="F114" s="1">
-        <v>1.16180607367962E-3</v>
+      <c r="E114" t="n">
+        <v>61046046.8677941</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0.00116180607367962</v>
       </c>
       <c r="G114" t="s">
         <v>123</v>
@@ -4481,24 +4584,24 @@
         <v>259</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115">
       <c r="A115" t="s">
         <v>262</v>
       </c>
       <c r="B115" t="s">
         <v>263</v>
       </c>
-      <c r="C115">
+      <c r="C115" t="n">
         <v>11</v>
       </c>
       <c r="D115" t="s">
         <v>258</v>
       </c>
-      <c r="E115">
-        <v>1852014126.0362301</v>
-      </c>
-      <c r="F115" s="1">
-        <v>3.5246856603658498E-2</v>
+      <c r="E115" t="n">
+        <v>1852014126.03623</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0.0352468566036585</v>
       </c>
       <c r="G115" t="s">
         <v>123</v>
@@ -4507,24 +4610,24 @@
         <v>259</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116">
       <c r="A116" t="s">
         <v>264</v>
       </c>
       <c r="B116" t="s">
         <v>265</v>
       </c>
-      <c r="C116">
+      <c r="C116" t="n">
         <v>11</v>
       </c>
       <c r="D116" t="s">
         <v>258</v>
       </c>
-      <c r="E116">
+      <c r="E116" t="n">
         <v>157532601.344091</v>
       </c>
-      <c r="F116" s="1">
-        <v>2.9981029474436299E-3</v>
+      <c r="F116" t="n">
+        <v>0.00299810294744363</v>
       </c>
       <c r="G116" t="s">
         <v>123</v>
@@ -4533,24 +4636,24 @@
         <v>259</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117">
       <c r="A117" t="s">
         <v>266</v>
       </c>
       <c r="B117" t="s">
         <v>267</v>
       </c>
-      <c r="C117">
+      <c r="C117" t="n">
         <v>11</v>
       </c>
       <c r="D117" t="s">
         <v>258</v>
       </c>
-      <c r="E117">
-        <v>907313694.57966197</v>
-      </c>
-      <c r="F117" s="1">
-        <v>1.72676629393913E-2</v>
+      <c r="E117" t="n">
+        <v>907313694.579662</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0.0172676629393913</v>
       </c>
       <c r="G117" t="s">
         <v>123</v>
@@ -4559,24 +4662,24 @@
         <v>268</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118">
       <c r="A118" t="s">
         <v>269</v>
       </c>
       <c r="B118" t="s">
         <v>270</v>
       </c>
-      <c r="C118">
+      <c r="C118" t="n">
         <v>11</v>
       </c>
       <c r="D118" t="s">
         <v>258</v>
       </c>
-      <c r="E118">
-        <v>151705624.21626201</v>
-      </c>
-      <c r="F118" s="1">
-        <v>2.8872060464049001E-3</v>
+      <c r="E118" t="n">
+        <v>151705624.216262</v>
+      </c>
+      <c r="F118" t="n">
+        <v>0.0028872060464049</v>
       </c>
       <c r="G118" t="s">
         <v>123</v>
@@ -4585,24 +4688,24 @@
         <v>124</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119">
       <c r="A119" t="s">
         <v>271</v>
       </c>
       <c r="B119" t="s">
         <v>272</v>
       </c>
-      <c r="C119">
+      <c r="C119" t="n">
         <v>11</v>
       </c>
       <c r="D119" t="s">
         <v>258</v>
       </c>
-      <c r="E119">
+      <c r="E119" t="n">
         <v>267692905.146164</v>
       </c>
-      <c r="F119" s="1">
-        <v>5.0946336255531296E-3</v>
+      <c r="F119" t="n">
+        <v>0.00509463362555313</v>
       </c>
       <c r="G119" t="s">
         <v>123</v>
@@ -4611,24 +4714,24 @@
         <v>124</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120">
       <c r="A120" t="s">
         <v>273</v>
       </c>
       <c r="B120" t="s">
         <v>274</v>
       </c>
-      <c r="C120">
+      <c r="C120" t="n">
         <v>11</v>
       </c>
       <c r="D120" t="s">
         <v>258</v>
       </c>
-      <c r="E120">
+      <c r="E120" t="n">
         <v>2748265004.77736</v>
       </c>
-      <c r="F120" s="1">
-        <v>5.2303976071479102E-2</v>
+      <c r="F120" t="n">
+        <v>0.0523039760714791</v>
       </c>
       <c r="G120" t="s">
         <v>123</v>
@@ -4637,24 +4740,24 @@
         <v>124</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121">
       <c r="A121" t="s">
         <v>275</v>
       </c>
       <c r="B121" t="s">
         <v>276</v>
       </c>
-      <c r="C121">
+      <c r="C121" t="n">
         <v>11</v>
       </c>
       <c r="D121" t="s">
         <v>258</v>
       </c>
-      <c r="E121">
-        <v>86702129.110033497</v>
-      </c>
-      <c r="F121" s="1">
-        <v>1.6500832628711E-3</v>
+      <c r="E121" t="n">
+        <v>86702129.1100335</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0.0016500832628711</v>
       </c>
       <c r="G121" t="s">
         <v>123</v>
@@ -4663,24 +4766,24 @@
         <v>124</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122">
       <c r="A122" t="s">
         <v>277</v>
       </c>
       <c r="B122" t="s">
         <v>122</v>
       </c>
-      <c r="C122">
+      <c r="C122" t="n">
         <v>11</v>
       </c>
       <c r="D122" t="s">
         <v>258</v>
       </c>
-      <c r="E122">
+      <c r="E122" t="n">
         <v>60549372.0785181</v>
       </c>
-      <c r="F122" s="1">
-        <v>1.15235354044559E-3</v>
+      <c r="F122" t="n">
+        <v>0.00115235354044559</v>
       </c>
       <c r="G122" t="s">
         <v>123</v>
@@ -4689,24 +4792,24 @@
         <v>124</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123">
       <c r="A123" t="s">
         <v>278</v>
       </c>
       <c r="B123" t="s">
         <v>279</v>
       </c>
-      <c r="C123">
+      <c r="C123" t="n">
         <v>11</v>
       </c>
       <c r="D123" t="s">
         <v>258</v>
       </c>
-      <c r="E123">
-        <v>686569.82900000003</v>
-      </c>
-      <c r="F123" s="1">
-        <v>1.30665462919303E-5</v>
+      <c r="E123" t="n">
+        <v>686569.829</v>
+      </c>
+      <c r="F123" t="n">
+        <v>0.0000130665462919303</v>
       </c>
       <c r="G123" t="s">
         <v>123</v>
@@ -4715,24 +4818,24 @@
         <v>259</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124">
       <c r="A124" t="s">
         <v>280</v>
       </c>
       <c r="B124" t="s">
         <v>281</v>
       </c>
-      <c r="C124">
+      <c r="C124" t="n">
         <v>11</v>
       </c>
       <c r="D124" t="s">
         <v>258</v>
       </c>
-      <c r="E124">
-        <v>8150.6004999999996</v>
-      </c>
-      <c r="F124" s="1">
-        <v>1.5511925261178399E-7</v>
+      <c r="E124" t="n">
+        <v>8150.6005</v>
+      </c>
+      <c r="F124" t="n">
+        <v>0.000000155119252611784</v>
       </c>
       <c r="G124" t="s">
         <v>123</v>
@@ -4741,24 +4844,24 @@
         <v>259</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125">
       <c r="A125" t="s">
         <v>282</v>
       </c>
       <c r="B125" t="s">
         <v>283</v>
       </c>
-      <c r="C125">
+      <c r="C125" t="n">
         <v>11</v>
       </c>
       <c r="D125" t="s">
         <v>258</v>
       </c>
-      <c r="E125">
+      <c r="E125" t="n">
         <v>72469.0815</v>
       </c>
-      <c r="F125" s="1">
-        <v>1.37920509780138E-6</v>
+      <c r="F125" t="n">
+        <v>0.00000137920509780138</v>
       </c>
       <c r="G125" t="s">
         <v>123</v>
@@ -4767,24 +4870,24 @@
         <v>268</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126">
       <c r="A126" t="s">
         <v>284</v>
       </c>
       <c r="B126" t="s">
         <v>285</v>
       </c>
-      <c r="C126">
+      <c r="C126" t="n">
         <v>11</v>
       </c>
       <c r="D126" t="s">
         <v>258</v>
       </c>
-      <c r="E126">
+      <c r="E126" t="n">
         <v>4844103.733</v>
       </c>
-      <c r="F126" s="1">
-        <v>9.2191213474015102E-5</v>
+      <c r="F126" t="n">
+        <v>0.0000921912134740151</v>
       </c>
       <c r="G126" t="s">
         <v>123</v>
@@ -4793,24 +4896,24 @@
         <v>124</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127">
       <c r="A127" t="s">
         <v>286</v>
       </c>
       <c r="B127" t="s">
         <v>287</v>
       </c>
-      <c r="C127">
+      <c r="C127" t="n">
         <v>11</v>
       </c>
       <c r="D127" t="s">
         <v>258</v>
       </c>
-      <c r="E127">
-        <v>3691941.4339737999</v>
-      </c>
-      <c r="F127" s="1">
-        <v>7.0263681298634995E-5</v>
+      <c r="E127" t="n">
+        <v>3691941.4339738</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0.000070263681298635</v>
       </c>
       <c r="G127" t="s">
         <v>123</v>
@@ -4819,24 +4922,24 @@
         <v>124</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128">
       <c r="A128" t="s">
         <v>288</v>
       </c>
       <c r="B128" t="s">
         <v>289</v>
       </c>
-      <c r="C128">
+      <c r="C128" t="n">
         <v>11</v>
       </c>
       <c r="D128" t="s">
         <v>258</v>
       </c>
-      <c r="E128">
-        <v>303727176.41733003</v>
-      </c>
-      <c r="F128" s="1">
-        <v>5.7804247188588996E-3</v>
+      <c r="E128" t="n">
+        <v>303727176.41733</v>
+      </c>
+      <c r="F128" t="n">
+        <v>0.0057804247188589</v>
       </c>
       <c r="G128" t="s">
         <v>123</v>
@@ -4845,24 +4948,24 @@
         <v>259</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129">
       <c r="A129" t="s">
         <v>290</v>
       </c>
       <c r="B129" t="s">
         <v>291</v>
       </c>
-      <c r="C129">
+      <c r="C129" t="n">
         <v>11</v>
       </c>
       <c r="D129" t="s">
         <v>258</v>
       </c>
-      <c r="E129">
-        <v>1553910427.3456299</v>
-      </c>
-      <c r="F129" s="1">
-        <v>2.9573455859542099E-2</v>
+      <c r="E129" t="n">
+        <v>1553910427.34563</v>
+      </c>
+      <c r="F129" t="n">
+        <v>0.0295734558595421</v>
       </c>
       <c r="G129" t="s">
         <v>123</v>
@@ -4871,24 +4974,24 @@
         <v>292</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130">
       <c r="A130" t="s">
         <v>293</v>
       </c>
       <c r="B130" t="s">
         <v>294</v>
       </c>
-      <c r="C130">
+      <c r="C130" t="n">
         <v>11</v>
       </c>
       <c r="D130" t="s">
         <v>258</v>
       </c>
-      <c r="E130">
+      <c r="E130" t="n">
         <v>272378000</v>
       </c>
-      <c r="F130" s="1">
-        <v>5.1837986400992903E-3</v>
+      <c r="F130" t="n">
+        <v>0.00518379864009929</v>
       </c>
       <c r="G130" t="s">
         <v>123</v>
@@ -4897,24 +5000,24 @@
         <v>124</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131">
       <c r="A131" t="s">
         <v>295</v>
       </c>
       <c r="B131" t="s">
         <v>296</v>
       </c>
-      <c r="C131">
+      <c r="C131" t="n">
         <v>11</v>
       </c>
       <c r="D131" t="s">
         <v>258</v>
       </c>
-      <c r="E131">
-        <v>86765493.303380296</v>
-      </c>
-      <c r="F131" s="1">
-        <v>1.6512891870621199E-3</v>
+      <c r="E131" t="n">
+        <v>86765493.3033803</v>
+      </c>
+      <c r="F131" t="n">
+        <v>0.00165128918706212</v>
       </c>
       <c r="G131" t="s">
         <v>123</v>
@@ -4923,24 +5026,24 @@
         <v>124</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132">
       <c r="A132" t="s">
         <v>297</v>
       </c>
       <c r="B132" t="s">
         <v>298</v>
       </c>
-      <c r="C132">
+      <c r="C132" t="n">
         <v>11</v>
       </c>
       <c r="D132" t="s">
         <v>258</v>
       </c>
-      <c r="E132">
+      <c r="E132" t="n">
         <v>153098000.5</v>
       </c>
-      <c r="F132" s="1">
-        <v>2.91370524342575E-3</v>
+      <c r="F132" t="n">
+        <v>0.00291370524342575</v>
       </c>
       <c r="G132" t="s">
         <v>123</v>
@@ -4949,24 +5052,24 @@
         <v>259</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133">
       <c r="A133" t="s">
         <v>299</v>
       </c>
       <c r="B133" t="s">
         <v>300</v>
       </c>
-      <c r="C133">
+      <c r="C133" t="n">
         <v>11</v>
       </c>
       <c r="D133" t="s">
         <v>258</v>
       </c>
-      <c r="E133">
-        <v>81375636.835842207</v>
-      </c>
-      <c r="F133" s="1">
-        <v>1.54871140682013E-3</v>
+      <c r="E133" t="n">
+        <v>81375636.8358422</v>
+      </c>
+      <c r="F133" t="n">
+        <v>0.00154871140682013</v>
       </c>
       <c r="G133" t="s">
         <v>123</v>
@@ -4975,24 +5078,24 @@
         <v>259</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134">
       <c r="A134" t="s">
         <v>301</v>
       </c>
       <c r="B134" t="s">
         <v>302</v>
       </c>
-      <c r="C134">
+      <c r="C134" t="n">
         <v>11</v>
       </c>
       <c r="D134" t="s">
         <v>258</v>
       </c>
-      <c r="E134">
+      <c r="E134" t="n">
         <v>117617477.6612</v>
       </c>
-      <c r="F134" s="1">
-        <v>2.2384528880894801E-3</v>
+      <c r="F134" t="n">
+        <v>0.00223845288808948</v>
       </c>
       <c r="G134" t="s">
         <v>303</v>
@@ -5001,24 +5104,24 @@
         <v>259</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135">
       <c r="A135" t="s">
         <v>304</v>
       </c>
       <c r="B135" t="s">
         <v>305</v>
       </c>
-      <c r="C135">
+      <c r="C135" t="n">
         <v>11</v>
       </c>
       <c r="D135" t="s">
         <v>258</v>
       </c>
-      <c r="E135">
-        <v>7916917.2582012098</v>
-      </c>
-      <c r="F135" s="1">
-        <v>1.5067187848079501E-4</v>
+      <c r="E135" t="n">
+        <v>7916917.25820121</v>
+      </c>
+      <c r="F135" t="n">
+        <v>0.000150671878480795</v>
       </c>
       <c r="G135" t="s">
         <v>123</v>
@@ -5027,24 +5130,24 @@
         <v>259</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136">
       <c r="A136" t="s">
         <v>306</v>
       </c>
       <c r="B136" t="s">
         <v>307</v>
       </c>
-      <c r="C136">
+      <c r="C136" t="n">
         <v>11</v>
       </c>
       <c r="D136" t="s">
         <v>258</v>
       </c>
-      <c r="E136">
-        <v>242835.55193509001</v>
-      </c>
-      <c r="F136" s="1">
-        <v>4.6215575556354799E-6</v>
+      <c r="E136" t="n">
+        <v>242835.55193509</v>
+      </c>
+      <c r="F136" t="n">
+        <v>0.00000462155755563548</v>
       </c>
       <c r="G136" t="s">
         <v>123</v>
@@ -5053,24 +5156,24 @@
         <v>259</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137">
       <c r="A137" t="s">
         <v>308</v>
       </c>
       <c r="B137" t="s">
         <v>309</v>
       </c>
-      <c r="C137">
+      <c r="C137" t="n">
         <v>11</v>
       </c>
       <c r="D137" t="s">
         <v>258</v>
       </c>
-      <c r="E137">
+      <c r="E137" t="n">
         <v>12209010.7226169</v>
       </c>
-      <c r="F137" s="1">
-        <v>2.32357434083733E-4</v>
+      <c r="F137" t="n">
+        <v>0.000232357434083733</v>
       </c>
       <c r="G137" t="s">
         <v>123</v>
@@ -5079,24 +5182,24 @@
         <v>124</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138">
       <c r="A138" t="s">
         <v>310</v>
       </c>
       <c r="B138" t="s">
         <v>311</v>
       </c>
-      <c r="C138">
+      <c r="C138" t="n">
         <v>11</v>
       </c>
       <c r="D138" t="s">
         <v>258</v>
       </c>
-      <c r="E138">
-        <v>3658207.6050162902</v>
-      </c>
-      <c r="F138" s="1">
-        <v>6.9621671383460901E-5</v>
+      <c r="E138" t="n">
+        <v>3658207.60501629</v>
+      </c>
+      <c r="F138" t="n">
+        <v>0.0000696216713834609</v>
       </c>
       <c r="G138" t="s">
         <v>123</v>
@@ -5105,24 +5208,24 @@
         <v>124</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139">
       <c r="A139" t="s">
         <v>312</v>
       </c>
       <c r="B139" t="s">
         <v>313</v>
       </c>
-      <c r="C139">
+      <c r="C139" t="n">
         <v>11</v>
       </c>
       <c r="D139" t="s">
         <v>258</v>
       </c>
-      <c r="E139">
-        <v>9828651.9863425791</v>
-      </c>
-      <c r="F139" s="1">
-        <v>1.8705531577738199E-4</v>
+      <c r="E139" t="n">
+        <v>9828651.98634258</v>
+      </c>
+      <c r="F139" t="n">
+        <v>0.000187055315777382</v>
       </c>
       <c r="G139" t="s">
         <v>123</v>
@@ -5131,24 +5234,24 @@
         <v>124</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140">
       <c r="A140" t="s">
         <v>314</v>
       </c>
       <c r="B140" t="s">
         <v>315</v>
       </c>
-      <c r="C140">
+      <c r="C140" t="n">
         <v>11</v>
       </c>
       <c r="D140" t="s">
         <v>258</v>
       </c>
-      <c r="E140">
-        <v>6715284.1825804403</v>
-      </c>
-      <c r="F140" s="1">
-        <v>1.2780283654899001E-4</v>
+      <c r="E140" t="n">
+        <v>6715284.18258044</v>
+      </c>
+      <c r="F140" t="n">
+        <v>0.00012780283654899</v>
       </c>
       <c r="G140" t="s">
         <v>123</v>
@@ -5157,24 +5260,24 @@
         <v>124</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141">
       <c r="A141" t="s">
         <v>316</v>
       </c>
       <c r="B141" t="s">
         <v>317</v>
       </c>
-      <c r="C141">
+      <c r="C141" t="n">
         <v>11</v>
       </c>
       <c r="D141" t="s">
         <v>258</v>
       </c>
-      <c r="E141">
-        <v>2465173.1925414698</v>
-      </c>
-      <c r="F141" s="1">
-        <v>4.6916276068939799E-5</v>
+      <c r="E141" t="n">
+        <v>2465173.19254147</v>
+      </c>
+      <c r="F141" t="n">
+        <v>0.0000469162760689398</v>
       </c>
       <c r="G141" t="s">
         <v>123</v>
@@ -5183,24 +5286,24 @@
         <v>124</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="142">
       <c r="A142" t="s">
         <v>318</v>
       </c>
       <c r="B142" t="s">
         <v>319</v>
       </c>
-      <c r="C142">
+      <c r="C142" t="n">
         <v>11</v>
       </c>
       <c r="D142" t="s">
         <v>258</v>
       </c>
-      <c r="E142">
+      <c r="E142" t="n">
         <v>13152463.7952158</v>
       </c>
-      <c r="F142" s="1">
-        <v>2.5031288846968198E-4</v>
+      <c r="F142" t="n">
+        <v>0.000250312888469682</v>
       </c>
       <c r="G142" t="s">
         <v>11</v>
@@ -5209,24 +5312,24 @@
         <v>27</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="143">
       <c r="A143" t="s">
         <v>320</v>
       </c>
       <c r="B143" t="s">
         <v>321</v>
       </c>
-      <c r="C143">
+      <c r="C143" t="n">
         <v>11</v>
       </c>
       <c r="D143" t="s">
         <v>258</v>
       </c>
-      <c r="E143">
-        <v>751587363.14377296</v>
-      </c>
-      <c r="F143" s="1">
-        <v>1.43039362613005E-2</v>
+      <c r="E143" t="n">
+        <v>751587363.143773</v>
+      </c>
+      <c r="F143" t="n">
+        <v>0.0143039362613005</v>
       </c>
       <c r="G143" t="s">
         <v>123</v>
@@ -5235,24 +5338,24 @@
         <v>124</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="144">
       <c r="A144" t="s">
         <v>322</v>
       </c>
       <c r="B144" t="s">
         <v>323</v>
       </c>
-      <c r="C144">
+      <c r="C144" t="n">
         <v>11</v>
       </c>
       <c r="D144" t="s">
         <v>258</v>
       </c>
-      <c r="E144">
+      <c r="E144" t="n">
         <v>1239115.04532035</v>
       </c>
-      <c r="F144" s="1">
-        <v>2.35823850929892E-5</v>
+      <c r="F144" t="n">
+        <v>0.0000235823850929892</v>
       </c>
       <c r="G144" t="s">
         <v>123</v>
@@ -5261,24 +5364,24 @@
         <v>124</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="145">
       <c r="A145" t="s">
         <v>324</v>
       </c>
       <c r="B145" t="s">
         <v>325</v>
       </c>
-      <c r="C145">
+      <c r="C145" t="n">
         <v>11</v>
       </c>
       <c r="D145" t="s">
         <v>258</v>
       </c>
-      <c r="E145">
-        <v>2115146.2096966701</v>
-      </c>
-      <c r="F145" s="1">
-        <v>4.0254690340030201E-5</v>
+      <c r="E145" t="n">
+        <v>2115146.20969667</v>
+      </c>
+      <c r="F145" t="n">
+        <v>0.0000402546903400302</v>
       </c>
       <c r="G145" t="s">
         <v>123</v>
@@ -5287,24 +5390,24 @@
         <v>124</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="146">
       <c r="A146" t="s">
         <v>326</v>
       </c>
       <c r="B146" t="s">
         <v>327</v>
       </c>
-      <c r="C146">
+      <c r="C146" t="n">
         <v>11</v>
       </c>
       <c r="D146" t="s">
         <v>258</v>
       </c>
-      <c r="E146">
+      <c r="E146" t="n">
         <v>30080000</v>
       </c>
-      <c r="F146" s="1">
-        <v>5.7247157661113098E-4</v>
+      <c r="F146" t="n">
+        <v>0.000572471576611131</v>
       </c>
       <c r="G146" t="s">
         <v>123</v>
@@ -5313,24 +5416,24 @@
         <v>124</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="147">
       <c r="A147" t="s">
         <v>328</v>
       </c>
       <c r="B147" t="s">
         <v>329</v>
       </c>
-      <c r="C147">
+      <c r="C147" t="n">
         <v>11</v>
       </c>
       <c r="D147" t="s">
         <v>258</v>
       </c>
-      <c r="E147">
-        <v>31975193.594663501</v>
-      </c>
-      <c r="F147" s="1">
-        <v>6.0854020909518395E-4</v>
+      <c r="E147" t="n">
+        <v>31975193.5946635</v>
+      </c>
+      <c r="F147" t="n">
+        <v>0.000608540209095184</v>
       </c>
       <c r="G147" t="s">
         <v>123</v>
@@ -5339,24 +5442,24 @@
         <v>268</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="148">
       <c r="A148" t="s">
         <v>330</v>
       </c>
       <c r="B148" t="s">
         <v>331</v>
       </c>
-      <c r="C148">
+      <c r="C148" t="n">
         <v>11</v>
       </c>
       <c r="D148" t="s">
         <v>258</v>
       </c>
-      <c r="E148">
-        <v>4134412.0843499498</v>
-      </c>
-      <c r="F148" s="1">
-        <v>7.86846211531891E-5</v>
+      <c r="E148" t="n">
+        <v>4134412.08434995</v>
+      </c>
+      <c r="F148" t="n">
+        <v>0.0000786846211531891</v>
       </c>
       <c r="G148" t="s">
         <v>123</v>
@@ -5365,24 +5468,24 @@
         <v>268</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="149">
       <c r="A149" t="s">
         <v>332</v>
       </c>
       <c r="B149" t="s">
         <v>333</v>
       </c>
-      <c r="C149">
+      <c r="C149" t="n">
         <v>11</v>
       </c>
       <c r="D149" t="s">
         <v>258</v>
       </c>
-      <c r="E149">
+      <c r="E149" t="n">
         <v>15309591.5637672</v>
       </c>
-      <c r="F149" s="1">
-        <v>2.9136655650872001E-4</v>
+      <c r="F149" t="n">
+        <v>0.00029136655650872</v>
       </c>
       <c r="G149" t="s">
         <v>123</v>
@@ -5391,24 +5494,24 @@
         <v>268</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150">
       <c r="A150" t="s">
         <v>334</v>
       </c>
       <c r="B150" t="s">
         <v>335</v>
       </c>
-      <c r="C150">
+      <c r="C150" t="n">
         <v>11</v>
       </c>
       <c r="D150" t="s">
         <v>258</v>
       </c>
-      <c r="E150">
+      <c r="E150" t="n">
         <v>123620524.312353</v>
       </c>
-      <c r="F150" s="1">
-        <v>2.3527006800062298E-3</v>
+      <c r="F150" t="n">
+        <v>0.00235270068000623</v>
       </c>
       <c r="G150" t="s">
         <v>123</v>
@@ -5417,24 +5520,24 @@
         <v>268</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="151">
       <c r="A151" t="s">
         <v>336</v>
       </c>
       <c r="B151" t="s">
         <v>337</v>
       </c>
-      <c r="C151">
+      <c r="C151" t="n">
         <v>11</v>
       </c>
       <c r="D151" t="s">
         <v>258</v>
       </c>
-      <c r="E151">
-        <v>37924160.041213498</v>
-      </c>
-      <c r="F151" s="1">
-        <v>7.2175876630473199E-4</v>
+      <c r="E151" t="n">
+        <v>37924160.0412135</v>
+      </c>
+      <c r="F151" t="n">
+        <v>0.000721758766304732</v>
       </c>
       <c r="G151" t="s">
         <v>123</v>
@@ -5443,24 +5546,24 @@
         <v>338</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="152">
       <c r="A152" t="s">
         <v>339</v>
       </c>
       <c r="B152" t="s">
         <v>340</v>
       </c>
-      <c r="C152">
+      <c r="C152" t="n">
         <v>11</v>
       </c>
       <c r="D152" t="s">
         <v>258</v>
       </c>
-      <c r="E152">
-        <v>15098495.593699999</v>
-      </c>
-      <c r="F152" s="1">
-        <v>2.8734905508582599E-4</v>
+      <c r="E152" t="n">
+        <v>15098495.5937</v>
+      </c>
+      <c r="F152" t="n">
+        <v>0.000287349055085826</v>
       </c>
       <c r="G152" t="s">
         <v>123</v>
@@ -5469,24 +5572,24 @@
         <v>338</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="153">
       <c r="A153" t="s">
         <v>341</v>
       </c>
       <c r="B153" t="s">
         <v>342</v>
       </c>
-      <c r="C153">
+      <c r="C153" t="n">
         <v>11</v>
       </c>
       <c r="D153" t="s">
         <v>258</v>
       </c>
-      <c r="E153">
-        <v>545517.53326185001</v>
-      </c>
-      <c r="F153" s="1">
-        <v>1.03820905031724E-5</v>
+      <c r="E153" t="n">
+        <v>545517.53326185</v>
+      </c>
+      <c r="F153" t="n">
+        <v>0.0000103820905031724</v>
       </c>
       <c r="G153" t="s">
         <v>123</v>
@@ -5495,24 +5598,24 @@
         <v>343</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="154">
       <c r="A154" t="s">
         <v>344</v>
       </c>
       <c r="B154" t="s">
         <v>345</v>
       </c>
-      <c r="C154">
+      <c r="C154" t="n">
         <v>11</v>
       </c>
       <c r="D154" t="s">
         <v>258</v>
       </c>
-      <c r="E154">
-        <v>971110.02519853006</v>
-      </c>
-      <c r="F154" s="1">
-        <v>1.84818114091847E-5</v>
+      <c r="E154" t="n">
+        <v>971110.02519853</v>
+      </c>
+      <c r="F154" t="n">
+        <v>0.0000184818114091847</v>
       </c>
       <c r="G154" t="s">
         <v>123</v>
@@ -5521,753 +5624,831 @@
         <v>343</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="155">
       <c r="A155" t="s">
         <v>346</v>
       </c>
       <c r="B155" t="s">
         <v>347</v>
       </c>
-      <c r="C155">
+      <c r="C155" t="n">
         <v>11</v>
       </c>
       <c r="D155" t="s">
         <v>258</v>
       </c>
-      <c r="E155">
-        <v>7879938.1051852005</v>
-      </c>
-      <c r="F155" s="1">
-        <v>1.4996810474313501E-4</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E155" t="n">
+        <v>7879938.1051852</v>
+      </c>
+      <c r="F155" t="n">
+        <v>0.000149968104743135</v>
+      </c>
+      <c r="G155"/>
+      <c r="H155"/>
+    </row>
+    <row r="156">
       <c r="A156" t="s">
         <v>348</v>
       </c>
       <c r="B156" t="s">
         <v>349</v>
       </c>
-      <c r="C156">
+      <c r="C156" t="n">
         <v>11</v>
       </c>
       <c r="D156" t="s">
         <v>258</v>
       </c>
-      <c r="E156">
-        <v>14197039.262270801</v>
-      </c>
-      <c r="F156" s="1">
-        <v>2.7019286734316099E-4</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E156" t="n">
+        <v>14197039.2622708</v>
+      </c>
+      <c r="F156" t="n">
+        <v>0.000270192867343161</v>
+      </c>
+      <c r="G156"/>
+      <c r="H156"/>
+    </row>
+    <row r="157">
       <c r="A157" t="s">
         <v>350</v>
       </c>
       <c r="B157" t="s">
         <v>351</v>
       </c>
-      <c r="C157">
+      <c r="C157" t="n">
         <v>11</v>
       </c>
       <c r="D157" t="s">
         <v>258</v>
       </c>
-      <c r="E157">
-        <v>23113200.046013199</v>
-      </c>
-      <c r="F157" s="1">
-        <v>4.3988198373901802E-4</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E157" t="n">
+        <v>23113200.0460132</v>
+      </c>
+      <c r="F157" t="n">
+        <v>0.000439881983739018</v>
+      </c>
+      <c r="G157"/>
+      <c r="H157"/>
+    </row>
+    <row r="158">
       <c r="A158" t="s">
         <v>352</v>
       </c>
       <c r="B158" t="s">
         <v>353</v>
       </c>
-      <c r="C158">
+      <c r="C158" t="n">
         <v>11</v>
       </c>
       <c r="D158" t="s">
         <v>258</v>
       </c>
-      <c r="E158">
+      <c r="E158" t="n">
         <v>9120453.95845199</v>
       </c>
-      <c r="F158" s="1">
-        <v>1.73577149501471E-4</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F158" t="n">
+        <v>0.000173577149501471</v>
+      </c>
+      <c r="G158"/>
+      <c r="H158"/>
+    </row>
+    <row r="159">
       <c r="A159" t="s">
         <v>354</v>
       </c>
       <c r="B159" t="s">
         <v>355</v>
       </c>
-      <c r="C159">
+      <c r="C159" t="n">
         <v>11</v>
       </c>
       <c r="D159" t="s">
         <v>258</v>
       </c>
-      <c r="E159">
-        <v>329857231.19999999</v>
-      </c>
-      <c r="F159" s="1">
-        <v>6.2777223803738803E-3</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E159" t="n">
+        <v>329857231.2</v>
+      </c>
+      <c r="F159" t="n">
+        <v>0.00627772238037388</v>
+      </c>
+      <c r="G159"/>
+      <c r="H159"/>
+    </row>
+    <row r="160">
       <c r="A160" t="s">
         <v>356</v>
       </c>
       <c r="B160" t="s">
         <v>357</v>
       </c>
-      <c r="C160">
+      <c r="C160" t="n">
         <v>11</v>
       </c>
       <c r="D160" t="s">
         <v>258</v>
       </c>
-      <c r="E160">
-        <v>-56537388.200000003</v>
-      </c>
-      <c r="F160" s="1">
-        <v>-1.0759989282024399E-3</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E160" t="n">
+        <v>-56537388.2</v>
+      </c>
+      <c r="F160" t="n">
+        <v>-0.00107599892820244</v>
+      </c>
+      <c r="G160"/>
+      <c r="H160"/>
+    </row>
+    <row r="161">
       <c r="A161" t="s">
         <v>358</v>
       </c>
       <c r="B161" t="s">
         <v>359</v>
       </c>
-      <c r="C161">
+      <c r="C161" t="n">
         <v>11</v>
       </c>
       <c r="D161" t="s">
         <v>258</v>
       </c>
-      <c r="E161">
-        <v>73668573.227267995</v>
-      </c>
-      <c r="F161" s="1">
-        <v>1.4020333863732301E-3</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E161" t="n">
+        <v>73668573.227268</v>
+      </c>
+      <c r="F161" t="n">
+        <v>0.00140203338637323</v>
+      </c>
+      <c r="G161"/>
+      <c r="H161"/>
+    </row>
+    <row r="162">
       <c r="A162" t="s">
         <v>360</v>
       </c>
       <c r="B162" t="s">
         <v>361</v>
       </c>
-      <c r="C162">
+      <c r="C162" t="n">
         <v>11</v>
       </c>
       <c r="D162" t="s">
         <v>258</v>
       </c>
-      <c r="E162">
-        <v>96600306.847984806</v>
-      </c>
-      <c r="F162" s="1">
-        <v>1.8384617673665199E-3</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E162" t="n">
+        <v>96600306.8479848</v>
+      </c>
+      <c r="F162" t="n">
+        <v>0.00183846176736652</v>
+      </c>
+      <c r="G162"/>
+      <c r="H162"/>
+    </row>
+    <row r="163">
       <c r="A163" t="s">
         <v>362</v>
       </c>
       <c r="B163" t="s">
         <v>363</v>
       </c>
-      <c r="C163">
+      <c r="C163" t="n">
         <v>11</v>
       </c>
       <c r="D163" t="s">
         <v>258</v>
       </c>
-      <c r="E163">
-        <v>2795556.7739886302</v>
-      </c>
-      <c r="F163" s="1">
-        <v>5.3204015755026502E-5</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E163" t="n">
+        <v>2795556.77398863</v>
+      </c>
+      <c r="F163" t="n">
+        <v>0.0000532040157550265</v>
+      </c>
+      <c r="G163"/>
+      <c r="H163"/>
+    </row>
+    <row r="164">
       <c r="A164" t="s">
         <v>364</v>
       </c>
       <c r="B164" t="s">
         <v>365</v>
       </c>
-      <c r="C164">
+      <c r="C164" t="n">
         <v>11</v>
       </c>
       <c r="D164" t="s">
         <v>258</v>
       </c>
-      <c r="E164">
-        <v>23991286.877755299</v>
-      </c>
-      <c r="F164" s="1">
-        <v>4.5659341169675902E-4</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E164" t="n">
+        <v>23991286.8777553</v>
+      </c>
+      <c r="F164" t="n">
+        <v>0.000456593411696759</v>
+      </c>
+      <c r="G164"/>
+      <c r="H164"/>
+    </row>
+    <row r="165">
       <c r="A165" t="s">
         <v>366</v>
       </c>
       <c r="B165" t="s">
         <v>367</v>
       </c>
-      <c r="C165">
+      <c r="C165" t="n">
         <v>11</v>
       </c>
       <c r="D165" t="s">
         <v>258</v>
       </c>
-      <c r="E165">
-        <v>26817503.539050601</v>
-      </c>
-      <c r="F165" s="1">
-        <v>5.10380935231878E-4</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E165" t="n">
+        <v>26817503.5390506</v>
+      </c>
+      <c r="F165" t="n">
+        <v>0.000510380935231878</v>
+      </c>
+      <c r="G165"/>
+      <c r="H165"/>
+    </row>
+    <row r="166">
       <c r="A166" t="s">
         <v>368</v>
       </c>
       <c r="B166" t="s">
         <v>369</v>
       </c>
-      <c r="C166">
+      <c r="C166" t="n">
         <v>11</v>
       </c>
       <c r="D166" t="s">
         <v>258</v>
       </c>
-      <c r="E166">
-        <v>256389046.70506701</v>
-      </c>
-      <c r="F166" s="1">
-        <v>4.8795027191846597E-3</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E166" t="n">
+        <v>256389046.705067</v>
+      </c>
+      <c r="F166" t="n">
+        <v>0.00487950271918466</v>
+      </c>
+      <c r="G166"/>
+      <c r="H166"/>
+    </row>
+    <row r="167">
       <c r="A167" t="s">
         <v>370</v>
       </c>
       <c r="B167" t="s">
         <v>371</v>
       </c>
-      <c r="C167">
+      <c r="C167" t="n">
         <v>11</v>
       </c>
       <c r="D167" t="s">
         <v>258</v>
       </c>
-      <c r="E167">
-        <v>13093.806656000001</v>
-      </c>
-      <c r="F167" s="1">
-        <v>2.4919654721415E-7</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E167" t="n">
+        <v>13093.806656</v>
+      </c>
+      <c r="F167" t="n">
+        <v>0.00000024919654721415</v>
+      </c>
+      <c r="G167"/>
+      <c r="H167"/>
+    </row>
+    <row r="168">
       <c r="A168" t="s">
         <v>372</v>
       </c>
       <c r="B168" t="s">
         <v>373</v>
       </c>
-      <c r="C168">
+      <c r="C168" t="n">
         <v>11</v>
       </c>
       <c r="D168" t="s">
         <v>258</v>
       </c>
-      <c r="E168">
+      <c r="E168" t="n">
         <v>93878959.7609597</v>
       </c>
-      <c r="F168" s="1">
-        <v>1.7866700832769101E-3</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F168" t="n">
+        <v>0.00178667008327691</v>
+      </c>
+      <c r="G168"/>
+      <c r="H168"/>
+    </row>
+    <row r="169">
       <c r="A169" t="s">
         <v>374</v>
       </c>
       <c r="B169" t="s">
         <v>375</v>
       </c>
-      <c r="C169">
+      <c r="C169" t="n">
         <v>11</v>
       </c>
       <c r="D169" t="s">
         <v>258</v>
       </c>
-      <c r="E169">
-        <v>7518060.0117431497</v>
-      </c>
-      <c r="F169" s="1">
-        <v>1.43080973004644E-4</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E169" t="n">
+        <v>7518060.01174315</v>
+      </c>
+      <c r="F169" t="n">
+        <v>0.000143080973004644</v>
+      </c>
+      <c r="G169"/>
+      <c r="H169"/>
+    </row>
+    <row r="170">
       <c r="A170" t="s">
         <v>376</v>
       </c>
       <c r="B170" t="s">
         <v>377</v>
       </c>
-      <c r="C170">
+      <c r="C170" t="n">
         <v>11</v>
       </c>
       <c r="D170" t="s">
         <v>258</v>
       </c>
-      <c r="E170">
-        <v>13400142.721449099</v>
-      </c>
-      <c r="F170" s="1">
-        <v>2.5502662335645298E-4</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E170" t="n">
+        <v>13400142.7214491</v>
+      </c>
+      <c r="F170" t="n">
+        <v>0.000255026623356453</v>
+      </c>
+      <c r="G170"/>
+      <c r="H170"/>
+    </row>
+    <row r="171">
       <c r="A171" t="s">
         <v>378</v>
       </c>
       <c r="B171" t="s">
         <v>379</v>
       </c>
-      <c r="C171">
+      <c r="C171" t="n">
         <v>11</v>
       </c>
       <c r="D171" t="s">
         <v>258</v>
       </c>
-      <c r="E171">
+      <c r="E171" t="n">
         <v>0</v>
       </c>
-      <c r="F171" s="1">
+      <c r="F171" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G171"/>
+      <c r="H171"/>
+    </row>
+    <row r="172">
       <c r="A172" t="s">
         <v>380</v>
       </c>
       <c r="B172" t="s">
         <v>381</v>
       </c>
-      <c r="C172">
+      <c r="C172" t="n">
         <v>11</v>
       </c>
       <c r="D172" t="s">
         <v>258</v>
       </c>
-      <c r="E172">
-        <v>135907.28715858501</v>
-      </c>
-      <c r="F172" s="1">
-        <v>2.5865378641162399E-6</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E172" t="n">
+        <v>135907.287158585</v>
+      </c>
+      <c r="F172" t="n">
+        <v>0.00000258653786411624</v>
+      </c>
+      <c r="G172"/>
+      <c r="H172"/>
+    </row>
+    <row r="173">
       <c r="A173" t="s">
         <v>382</v>
       </c>
       <c r="B173" t="s">
         <v>383</v>
       </c>
-      <c r="C173">
+      <c r="C173" t="n">
         <v>11</v>
       </c>
       <c r="D173" t="s">
         <v>258</v>
       </c>
-      <c r="E173">
-        <v>6374.0185000000001</v>
-      </c>
-      <c r="F173" s="1">
-        <v>1.2130799268761699E-7</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E173" t="n">
+        <v>6374.0185</v>
+      </c>
+      <c r="F173" t="n">
+        <v>0.000000121307992687617</v>
+      </c>
+      <c r="G173"/>
+      <c r="H173"/>
+    </row>
+    <row r="174">
       <c r="A174" t="s">
         <v>384</v>
       </c>
       <c r="B174" t="s">
         <v>385</v>
       </c>
-      <c r="C174">
+      <c r="C174" t="n">
         <v>11</v>
       </c>
       <c r="D174" t="s">
         <v>258</v>
       </c>
-      <c r="E174">
-        <v>2460757.4899599999</v>
-      </c>
-      <c r="F174" s="1">
-        <v>4.6832238029755603E-5</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E174" t="n">
+        <v>2460757.48996</v>
+      </c>
+      <c r="F174" t="n">
+        <v>0.0000468322380297556</v>
+      </c>
+      <c r="G174"/>
+      <c r="H174"/>
+    </row>
+    <row r="175">
       <c r="A175" t="s">
         <v>386</v>
       </c>
       <c r="B175" t="s">
         <v>387</v>
       </c>
-      <c r="C175">
+      <c r="C175" t="n">
         <v>11</v>
       </c>
       <c r="D175" t="s">
         <v>258</v>
       </c>
-      <c r="E175">
-        <v>183626350.08983499</v>
-      </c>
-      <c r="F175" s="1">
-        <v>3.4947096457205902E-3</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E175" t="n">
+        <v>183626350.089835</v>
+      </c>
+      <c r="F175" t="n">
+        <v>0.00349470964572059</v>
+      </c>
+      <c r="G175"/>
+      <c r="H175"/>
+    </row>
+    <row r="176">
       <c r="A176" t="s">
         <v>388</v>
       </c>
       <c r="B176" t="s">
         <v>389</v>
       </c>
-      <c r="C176">
+      <c r="C176" t="n">
         <v>11</v>
       </c>
       <c r="D176" t="s">
         <v>258</v>
       </c>
-      <c r="E176">
+      <c r="E176" t="n">
         <v>1927693.55743835</v>
       </c>
-      <c r="F176" s="1">
-        <v>3.6687159908572199E-5</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F176" t="n">
+        <v>0.0000366871599085722</v>
+      </c>
+      <c r="G176"/>
+      <c r="H176"/>
+    </row>
+    <row r="177">
       <c r="A177" t="s">
         <v>390</v>
       </c>
       <c r="B177" t="s">
         <v>391</v>
       </c>
-      <c r="C177">
+      <c r="C177" t="n">
         <v>11</v>
       </c>
       <c r="D177" t="s">
         <v>258</v>
       </c>
-      <c r="E177">
-        <v>429305.04714668402</v>
-      </c>
-      <c r="F177" s="1">
-        <v>8.1703769011694808E-6</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E177" t="n">
+        <v>429305.047146684</v>
+      </c>
+      <c r="F177" t="n">
+        <v>0.00000817037690116948</v>
+      </c>
+      <c r="G177"/>
+      <c r="H177"/>
+    </row>
+    <row r="178">
       <c r="A178" t="s">
         <v>392</v>
       </c>
       <c r="B178" t="s">
         <v>393</v>
       </c>
-      <c r="C178">
+      <c r="C178" t="n">
         <v>11</v>
       </c>
       <c r="D178" t="s">
         <v>258</v>
       </c>
-      <c r="E178">
+      <c r="E178" t="n">
         <v>4349443.0005631</v>
       </c>
-      <c r="F178" s="1">
-        <v>8.2777011034328599E-5</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F178" t="n">
+        <v>0.0000827770110343286</v>
+      </c>
+      <c r="G178"/>
+      <c r="H178"/>
+    </row>
+    <row r="179">
       <c r="A179" t="s">
         <v>394</v>
       </c>
       <c r="B179" t="s">
         <v>395</v>
       </c>
-      <c r="C179">
+      <c r="C179" t="n">
         <v>11</v>
       </c>
       <c r="D179" t="s">
         <v>258</v>
       </c>
-      <c r="E179">
+      <c r="E179" t="n">
         <v>3636335.49907587</v>
       </c>
-      <c r="F179" s="1">
-        <v>6.9205409449567295E-5</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F179" t="n">
+        <v>0.0000692054094495673</v>
+      </c>
+      <c r="G179"/>
+      <c r="H179"/>
+    </row>
+    <row r="180">
       <c r="A180" t="s">
         <v>396</v>
       </c>
       <c r="B180" t="s">
         <v>397</v>
       </c>
-      <c r="C180">
+      <c r="C180" t="n">
         <v>11</v>
       </c>
       <c r="D180" t="s">
         <v>258</v>
       </c>
-      <c r="E180">
-        <v>325494267.73861599</v>
-      </c>
-      <c r="F180" s="1">
-        <v>6.1946880528660599E-3</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E180" t="n">
+        <v>325494267.738616</v>
+      </c>
+      <c r="F180" t="n">
+        <v>0.00619468805286606</v>
+      </c>
+      <c r="G180"/>
+      <c r="H180"/>
+    </row>
+    <row r="181">
       <c r="A181" t="s">
         <v>398</v>
       </c>
       <c r="B181" t="s">
         <v>399</v>
       </c>
-      <c r="C181">
+      <c r="C181" t="n">
         <v>11</v>
       </c>
       <c r="D181" t="s">
         <v>258</v>
       </c>
-      <c r="E181">
+      <c r="E181" t="n">
         <v>186323604.42102</v>
       </c>
-      <c r="F181" s="1">
-        <v>3.54604280527826E-3</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F181" t="n">
+        <v>0.00354604280527826</v>
+      </c>
+      <c r="G181"/>
+      <c r="H181"/>
+    </row>
+    <row r="182">
       <c r="A182" t="s">
         <v>400</v>
       </c>
       <c r="B182" t="s">
         <v>401</v>
       </c>
-      <c r="C182">
+      <c r="C182" t="n">
         <v>11</v>
       </c>
       <c r="D182" t="s">
         <v>258</v>
       </c>
-      <c r="E182">
-        <v>19597266.267923601</v>
-      </c>
-      <c r="F182" s="1">
-        <v>3.7296801587986502E-4</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E182" t="n">
+        <v>19597266.2679236</v>
+      </c>
+      <c r="F182" t="n">
+        <v>0.000372968015879865</v>
+      </c>
+      <c r="G182"/>
+      <c r="H182"/>
+    </row>
+    <row r="183">
       <c r="A183" t="s">
         <v>402</v>
       </c>
       <c r="B183" t="s">
         <v>403</v>
       </c>
-      <c r="C183">
+      <c r="C183" t="n">
         <v>11</v>
       </c>
       <c r="D183" t="s">
         <v>258</v>
       </c>
-      <c r="E183">
+      <c r="E183" t="n">
         <v>0</v>
       </c>
-      <c r="F183" s="1">
+      <c r="F183" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G183"/>
+      <c r="H183"/>
+    </row>
+    <row r="184">
       <c r="A184" t="s">
         <v>404</v>
       </c>
       <c r="B184" t="s">
         <v>405</v>
       </c>
-      <c r="C184">
+      <c r="C184" t="n">
         <v>11</v>
       </c>
       <c r="D184" t="s">
         <v>258</v>
       </c>
-      <c r="E184">
-        <v>9378185.9963783808</v>
-      </c>
-      <c r="F184" s="1">
-        <v>1.7848221153920099E-4</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E184" t="n">
+        <v>9378185.99637838</v>
+      </c>
+      <c r="F184" t="n">
+        <v>0.000178482211539201</v>
+      </c>
+      <c r="G184"/>
+      <c r="H184"/>
+    </row>
+    <row r="185">
       <c r="A185" t="s">
         <v>406</v>
       </c>
       <c r="B185" t="s">
         <v>407</v>
       </c>
-      <c r="C185">
+      <c r="C185" t="n">
         <v>11</v>
       </c>
       <c r="D185" t="s">
         <v>258</v>
       </c>
-      <c r="E185">
+      <c r="E185" t="n">
         <v>15126825.2367229</v>
       </c>
-      <c r="F185" s="1">
-        <v>2.8788821450757298E-4</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F185" t="n">
+        <v>0.000287888214507573</v>
+      </c>
+      <c r="G185"/>
+      <c r="H185"/>
+    </row>
+    <row r="186">
       <c r="A186" t="s">
         <v>408</v>
       </c>
       <c r="B186" t="s">
         <v>409</v>
       </c>
-      <c r="C186">
+      <c r="C186" t="n">
         <v>11</v>
       </c>
       <c r="D186" t="s">
         <v>258</v>
       </c>
-      <c r="E186">
-        <v>1102038954.9133999</v>
-      </c>
-      <c r="F186" s="1">
-        <v>2.0973602992226E-2</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E186" t="n">
+        <v>1102038954.9134</v>
+      </c>
+      <c r="F186" t="n">
+        <v>0.020973602992226</v>
+      </c>
+      <c r="G186"/>
+      <c r="H186"/>
+    </row>
+    <row r="187">
       <c r="A187" t="s">
         <v>410</v>
       </c>
       <c r="B187" t="s">
         <v>411</v>
       </c>
-      <c r="C187">
+      <c r="C187" t="n">
         <v>11</v>
       </c>
       <c r="D187" t="s">
         <v>258</v>
       </c>
-      <c r="E187">
-        <v>290813780.25068498</v>
-      </c>
-      <c r="F187" s="1">
-        <v>5.5346616782032104E-3</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E187" t="n">
+        <v>290813780.250685</v>
+      </c>
+      <c r="F187" t="n">
+        <v>0.00553466167820321</v>
+      </c>
+      <c r="G187"/>
+      <c r="H187"/>
+    </row>
+    <row r="188">
       <c r="A188" t="s">
         <v>412</v>
       </c>
       <c r="B188" t="s">
         <v>413</v>
       </c>
-      <c r="C188">
+      <c r="C188" t="n">
         <v>11</v>
       </c>
       <c r="D188" t="s">
         <v>258</v>
       </c>
-      <c r="E188">
-        <v>964955574.07399499</v>
-      </c>
-      <c r="F188" s="1">
-        <v>1.8364682142614299E-2</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E188" t="n">
+        <v>964955574.073995</v>
+      </c>
+      <c r="F188" t="n">
+        <v>0.0183646821426143</v>
+      </c>
+      <c r="G188"/>
+      <c r="H188"/>
+    </row>
+    <row r="189">
       <c r="A189" t="s">
         <v>414</v>
       </c>
       <c r="B189" t="s">
         <v>415</v>
       </c>
-      <c r="C189">
+      <c r="C189" t="n">
         <v>11</v>
       </c>
       <c r="D189" t="s">
         <v>258</v>
       </c>
-      <c r="E189">
-        <v>368164.85339050001</v>
-      </c>
-      <c r="F189" s="1">
-        <v>7.0067790582867499E-6</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E189" t="n">
+        <v>368164.8533905</v>
+      </c>
+      <c r="F189" t="n">
+        <v>0.00000700677905828675</v>
+      </c>
+      <c r="G189"/>
+      <c r="H189"/>
+    </row>
+    <row r="190">
       <c r="A190" t="s">
         <v>416</v>
       </c>
       <c r="B190" t="s">
         <v>417</v>
       </c>
-      <c r="C190">
+      <c r="C190" t="n">
         <v>11</v>
       </c>
       <c r="D190" t="s">
         <v>258</v>
       </c>
-      <c r="E190">
-        <v>13151765.887114201</v>
-      </c>
-      <c r="F190" s="1">
-        <v>2.5029960613752499E-4</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E190" t="n">
+        <v>13151765.8871142</v>
+      </c>
+      <c r="F190" t="n">
+        <v>0.000250299606137525</v>
+      </c>
+      <c r="G190"/>
+      <c r="H190"/>
+    </row>
+    <row r="191">
       <c r="A191" t="s">
         <v>418</v>
       </c>
       <c r="B191" t="s">
         <v>419</v>
       </c>
-      <c r="C191">
+      <c r="C191" t="n">
         <v>11</v>
       </c>
       <c r="D191" t="s">
         <v>258</v>
       </c>
-      <c r="E191">
-        <v>10911306.133364299</v>
-      </c>
-      <c r="F191" s="1">
-        <v>2.0765999418396899E-4</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E191" t="n">
+        <v>10911306.1333643</v>
+      </c>
+      <c r="F191" t="n">
+        <v>0.000207659994183969</v>
+      </c>
+      <c r="G191"/>
+      <c r="H191"/>
+    </row>
+    <row r="192">
       <c r="A192" t="s">
         <v>420</v>
       </c>
       <c r="B192" t="s">
         <v>421</v>
       </c>
+      <c r="C192"/>
+      <c r="D192"/>
+      <c r="E192"/>
+      <c r="F192"/>
       <c r="G192" t="s">
         <v>11</v>
       </c>
@@ -6275,13 +6456,17 @@
         <v>12</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="193">
       <c r="A193" t="s">
         <v>422</v>
       </c>
       <c r="B193" t="s">
         <v>423</v>
       </c>
+      <c r="C193"/>
+      <c r="D193"/>
+      <c r="E193"/>
+      <c r="F193"/>
       <c r="G193" t="s">
         <v>11</v>
       </c>
@@ -6289,13 +6474,17 @@
         <v>12</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="194">
       <c r="A194" t="s">
         <v>424</v>
       </c>
       <c r="B194" t="s">
         <v>425</v>
       </c>
+      <c r="C194"/>
+      <c r="D194"/>
+      <c r="E194"/>
+      <c r="F194"/>
       <c r="G194" t="s">
         <v>11</v>
       </c>
@@ -6303,13 +6492,17 @@
         <v>426</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="195">
       <c r="A195" t="s">
         <v>427</v>
       </c>
       <c r="B195" t="s">
         <v>54</v>
       </c>
+      <c r="C195"/>
+      <c r="D195"/>
+      <c r="E195"/>
+      <c r="F195"/>
       <c r="G195" t="s">
         <v>11</v>
       </c>
@@ -6317,13 +6510,17 @@
         <v>428</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="196">
       <c r="A196" t="s">
         <v>429</v>
       </c>
       <c r="B196" t="s">
         <v>430</v>
       </c>
+      <c r="C196"/>
+      <c r="D196"/>
+      <c r="E196"/>
+      <c r="F196"/>
       <c r="G196" t="s">
         <v>11</v>
       </c>
@@ -6331,13 +6528,17 @@
         <v>428</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="197">
       <c r="A197" t="s">
         <v>431</v>
       </c>
       <c r="B197" t="s">
         <v>432</v>
       </c>
+      <c r="C197"/>
+      <c r="D197"/>
+      <c r="E197"/>
+      <c r="F197"/>
       <c r="G197" t="s">
         <v>123</v>
       </c>
@@ -6345,13 +6546,17 @@
         <v>124</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="198">
       <c r="A198" t="s">
         <v>433</v>
       </c>
       <c r="B198" t="s">
         <v>434</v>
       </c>
+      <c r="C198"/>
+      <c r="D198"/>
+      <c r="E198"/>
+      <c r="F198"/>
       <c r="G198" t="s">
         <v>123</v>
       </c>
@@ -6359,13 +6564,17 @@
         <v>124</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="199">
       <c r="A199" t="s">
         <v>435</v>
       </c>
       <c r="B199" t="s">
         <v>436</v>
       </c>
+      <c r="C199"/>
+      <c r="D199"/>
+      <c r="E199"/>
+      <c r="F199"/>
       <c r="G199" t="s">
         <v>123</v>
       </c>
@@ -6373,13 +6582,17 @@
         <v>124</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="200">
       <c r="A200" t="s">
         <v>437</v>
       </c>
       <c r="B200" t="s">
         <v>438</v>
       </c>
+      <c r="C200"/>
+      <c r="D200"/>
+      <c r="E200"/>
+      <c r="F200"/>
       <c r="G200" t="s">
         <v>123</v>
       </c>
@@ -6387,13 +6600,17 @@
         <v>124</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="201">
       <c r="A201" t="s">
         <v>439</v>
       </c>
       <c r="B201" t="s">
         <v>440</v>
       </c>
+      <c r="C201"/>
+      <c r="D201"/>
+      <c r="E201"/>
+      <c r="F201"/>
       <c r="G201" t="s">
         <v>123</v>
       </c>
@@ -6401,13 +6618,17 @@
         <v>124</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="202">
       <c r="A202" t="s">
         <v>441</v>
       </c>
       <c r="B202" t="s">
         <v>442</v>
       </c>
+      <c r="C202"/>
+      <c r="D202"/>
+      <c r="E202"/>
+      <c r="F202"/>
       <c r="G202" t="s">
         <v>123</v>
       </c>
@@ -6415,13 +6636,17 @@
         <v>124</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="203">
       <c r="A203" t="s">
         <v>443</v>
       </c>
       <c r="B203" t="s">
         <v>444</v>
       </c>
+      <c r="C203"/>
+      <c r="D203"/>
+      <c r="E203"/>
+      <c r="F203"/>
       <c r="G203" t="s">
         <v>224</v>
       </c>
@@ -6429,13 +6654,17 @@
         <v>237</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="204">
       <c r="A204" t="s">
         <v>445</v>
       </c>
       <c r="B204" t="s">
         <v>446</v>
       </c>
+      <c r="C204"/>
+      <c r="D204"/>
+      <c r="E204"/>
+      <c r="F204"/>
       <c r="G204" t="s">
         <v>224</v>
       </c>
@@ -6443,13 +6672,17 @@
         <v>237</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="205">
       <c r="A205" t="s">
         <v>447</v>
       </c>
       <c r="B205" t="s">
         <v>448</v>
       </c>
+      <c r="C205"/>
+      <c r="D205"/>
+      <c r="E205"/>
+      <c r="F205"/>
       <c r="G205" t="s">
         <v>11</v>
       </c>
@@ -6457,13 +6690,17 @@
         <v>449</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="206">
       <c r="A206" t="s">
         <v>450</v>
       </c>
       <c r="B206" t="s">
         <v>451</v>
       </c>
+      <c r="C206"/>
+      <c r="D206"/>
+      <c r="E206"/>
+      <c r="F206"/>
       <c r="G206" t="s">
         <v>11</v>
       </c>
@@ -6471,13 +6708,17 @@
         <v>449</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="207">
       <c r="A207" t="s">
         <v>452</v>
       </c>
       <c r="B207" t="s">
         <v>453</v>
       </c>
+      <c r="C207"/>
+      <c r="D207"/>
+      <c r="E207"/>
+      <c r="F207"/>
       <c r="G207" t="s">
         <v>123</v>
       </c>
@@ -6485,13 +6726,17 @@
         <v>124</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="208">
       <c r="A208" t="s">
         <v>454</v>
       </c>
       <c r="B208" t="s">
         <v>455</v>
       </c>
+      <c r="C208"/>
+      <c r="D208"/>
+      <c r="E208"/>
+      <c r="F208"/>
       <c r="G208" t="s">
         <v>123</v>
       </c>
@@ -6499,13 +6744,17 @@
         <v>268</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="209">
       <c r="A209" t="s">
         <v>456</v>
       </c>
       <c r="B209" t="s">
         <v>457</v>
       </c>
+      <c r="C209"/>
+      <c r="D209"/>
+      <c r="E209"/>
+      <c r="F209"/>
       <c r="G209" t="s">
         <v>123</v>
       </c>
@@ -6513,13 +6762,17 @@
         <v>259</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="210">
       <c r="A210" t="s">
         <v>458</v>
       </c>
       <c r="B210" t="s">
         <v>459</v>
       </c>
+      <c r="C210"/>
+      <c r="D210"/>
+      <c r="E210"/>
+      <c r="F210"/>
       <c r="G210" t="s">
         <v>123</v>
       </c>
@@ -6527,13 +6780,17 @@
         <v>259</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="211">
       <c r="A211" t="s">
         <v>460</v>
       </c>
       <c r="B211" t="s">
         <v>461</v>
       </c>
+      <c r="C211"/>
+      <c r="D211"/>
+      <c r="E211"/>
+      <c r="F211"/>
       <c r="G211" t="s">
         <v>123</v>
       </c>
@@ -6541,13 +6798,17 @@
         <v>259</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="212">
       <c r="A212" t="s">
         <v>462</v>
       </c>
       <c r="B212" t="s">
         <v>463</v>
       </c>
+      <c r="C212"/>
+      <c r="D212"/>
+      <c r="E212"/>
+      <c r="F212"/>
       <c r="G212" t="s">
         <v>123</v>
       </c>
@@ -6555,13 +6816,17 @@
         <v>259</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="213">
       <c r="A213" t="s">
         <v>464</v>
       </c>
       <c r="B213" t="s">
         <v>465</v>
       </c>
+      <c r="C213"/>
+      <c r="D213"/>
+      <c r="E213"/>
+      <c r="F213"/>
       <c r="G213" t="s">
         <v>123</v>
       </c>
@@ -6569,13 +6834,17 @@
         <v>259</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="214">
       <c r="A214" t="s">
         <v>466</v>
       </c>
       <c r="B214" t="s">
         <v>467</v>
       </c>
+      <c r="C214"/>
+      <c r="D214"/>
+      <c r="E214"/>
+      <c r="F214"/>
       <c r="G214" t="s">
         <v>123</v>
       </c>
@@ -6583,13 +6852,17 @@
         <v>268</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="215">
       <c r="A215" t="s">
         <v>466</v>
       </c>
       <c r="B215" t="s">
         <v>467</v>
       </c>
+      <c r="C215"/>
+      <c r="D215"/>
+      <c r="E215"/>
+      <c r="F215"/>
       <c r="G215" t="s">
         <v>123</v>
       </c>
@@ -6597,13 +6870,17 @@
         <v>268</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="216">
       <c r="A216" t="s">
         <v>468</v>
       </c>
       <c r="B216" t="s">
         <v>469</v>
       </c>
+      <c r="C216"/>
+      <c r="D216"/>
+      <c r="E216"/>
+      <c r="F216"/>
       <c r="G216" t="s">
         <v>224</v>
       </c>
@@ -6611,13 +6888,17 @@
         <v>237</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="217">
       <c r="A217" t="s">
         <v>470</v>
       </c>
       <c r="B217" t="s">
         <v>471</v>
       </c>
+      <c r="C217"/>
+      <c r="D217"/>
+      <c r="E217"/>
+      <c r="F217"/>
       <c r="G217" t="s">
         <v>203</v>
       </c>
@@ -6625,13 +6906,17 @@
         <v>214</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="218">
       <c r="A218" t="s">
         <v>472</v>
       </c>
       <c r="B218" t="s">
         <v>473</v>
       </c>
+      <c r="C218"/>
+      <c r="D218"/>
+      <c r="E218"/>
+      <c r="F218"/>
       <c r="G218" t="s">
         <v>123</v>
       </c>
@@ -6639,13 +6924,17 @@
         <v>124</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="219">
       <c r="A219" t="s">
         <v>474</v>
       </c>
       <c r="B219" t="s">
         <v>475</v>
       </c>
+      <c r="C219"/>
+      <c r="D219"/>
+      <c r="E219"/>
+      <c r="F219"/>
       <c r="G219" t="s">
         <v>123</v>
       </c>
@@ -6653,13 +6942,17 @@
         <v>268</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="220">
       <c r="A220" t="s">
         <v>476</v>
       </c>
       <c r="B220" t="s">
         <v>477</v>
       </c>
+      <c r="C220"/>
+      <c r="D220"/>
+      <c r="E220"/>
+      <c r="F220"/>
       <c r="G220" t="s">
         <v>107</v>
       </c>
@@ -6667,13 +6960,17 @@
         <v>478</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="221">
       <c r="A221" t="s">
         <v>479</v>
       </c>
       <c r="B221" t="s">
         <v>480</v>
       </c>
+      <c r="C221"/>
+      <c r="D221"/>
+      <c r="E221"/>
+      <c r="F221"/>
       <c r="G221" t="s">
         <v>107</v>
       </c>
@@ -6681,13 +6978,17 @@
         <v>478</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="222">
       <c r="A222" t="s">
         <v>481</v>
       </c>
       <c r="B222" t="s">
         <v>482</v>
       </c>
+      <c r="C222"/>
+      <c r="D222"/>
+      <c r="E222"/>
+      <c r="F222"/>
       <c r="G222" t="s">
         <v>107</v>
       </c>
@@ -6695,13 +6996,17 @@
         <v>483</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="223">
       <c r="A223" t="s">
         <v>484</v>
       </c>
       <c r="B223" t="s">
         <v>485</v>
       </c>
+      <c r="C223"/>
+      <c r="D223"/>
+      <c r="E223"/>
+      <c r="F223"/>
       <c r="G223" t="s">
         <v>107</v>
       </c>
@@ -6709,13 +7014,17 @@
         <v>130</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="224">
       <c r="A224" t="s">
         <v>486</v>
       </c>
       <c r="B224" t="s">
         <v>487</v>
       </c>
+      <c r="C224"/>
+      <c r="D224"/>
+      <c r="E224"/>
+      <c r="F224"/>
       <c r="G224" t="s">
         <v>107</v>
       </c>
@@ -6723,13 +7032,17 @@
         <v>130</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="225">
       <c r="A225" t="s">
         <v>488</v>
       </c>
       <c r="B225" t="s">
         <v>489</v>
       </c>
+      <c r="C225"/>
+      <c r="D225"/>
+      <c r="E225"/>
+      <c r="F225"/>
       <c r="G225" t="s">
         <v>107</v>
       </c>
@@ -6737,13 +7050,17 @@
         <v>490</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="226">
       <c r="A226" t="s">
         <v>491</v>
       </c>
       <c r="B226" t="s">
         <v>492</v>
       </c>
+      <c r="C226"/>
+      <c r="D226"/>
+      <c r="E226"/>
+      <c r="F226"/>
       <c r="G226" t="s">
         <v>107</v>
       </c>
@@ -6751,13 +7068,17 @@
         <v>133</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="227">
       <c r="A227" t="s">
         <v>493</v>
       </c>
       <c r="B227" t="s">
         <v>494</v>
       </c>
+      <c r="C227"/>
+      <c r="D227"/>
+      <c r="E227"/>
+      <c r="F227"/>
       <c r="G227" t="s">
         <v>107</v>
       </c>
@@ -6765,13 +7086,17 @@
         <v>133</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="228">
       <c r="A228" t="s">
         <v>495</v>
       </c>
       <c r="B228" t="s">
         <v>496</v>
       </c>
+      <c r="C228"/>
+      <c r="D228"/>
+      <c r="E228"/>
+      <c r="F228"/>
       <c r="G228" t="s">
         <v>107</v>
       </c>
@@ -6779,13 +7104,17 @@
         <v>490</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="229">
       <c r="A229" t="s">
         <v>497</v>
       </c>
       <c r="B229" t="s">
         <v>498</v>
       </c>
+      <c r="C229"/>
+      <c r="D229"/>
+      <c r="E229"/>
+      <c r="F229"/>
       <c r="G229" t="s">
         <v>107</v>
       </c>
@@ -6793,13 +7122,17 @@
         <v>133</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="230">
       <c r="A230" t="s">
         <v>499</v>
       </c>
       <c r="B230" t="s">
         <v>500</v>
       </c>
+      <c r="C230"/>
+      <c r="D230"/>
+      <c r="E230"/>
+      <c r="F230"/>
       <c r="G230" t="s">
         <v>123</v>
       </c>
@@ -6807,13 +7140,17 @@
         <v>338</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="231">
       <c r="A231" t="s">
         <v>501</v>
       </c>
       <c r="B231" t="s">
         <v>502</v>
       </c>
+      <c r="C231"/>
+      <c r="D231"/>
+      <c r="E231"/>
+      <c r="F231"/>
       <c r="G231" t="s">
         <v>123</v>
       </c>
@@ -6821,13 +7158,17 @@
         <v>503</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="232">
       <c r="A232" t="s">
         <v>504</v>
       </c>
       <c r="B232" t="s">
         <v>505</v>
       </c>
+      <c r="C232"/>
+      <c r="D232"/>
+      <c r="E232"/>
+      <c r="F232"/>
       <c r="G232" t="s">
         <v>11</v>
       </c>
@@ -6835,13 +7176,17 @@
         <v>27</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="233">
       <c r="A233" t="s">
         <v>506</v>
       </c>
       <c r="B233" t="s">
         <v>507</v>
       </c>
+      <c r="C233"/>
+      <c r="D233"/>
+      <c r="E233"/>
+      <c r="F233"/>
       <c r="G233" t="s">
         <v>224</v>
       </c>
@@ -6849,13 +7194,17 @@
         <v>237</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="234">
       <c r="A234" t="s">
         <v>508</v>
       </c>
       <c r="B234" t="s">
         <v>509</v>
       </c>
+      <c r="C234"/>
+      <c r="D234"/>
+      <c r="E234"/>
+      <c r="F234"/>
       <c r="G234" t="s">
         <v>203</v>
       </c>
@@ -6863,13 +7212,17 @@
         <v>510</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="235">
       <c r="A235" t="s">
         <v>511</v>
       </c>
       <c r="B235" t="s">
         <v>512</v>
       </c>
+      <c r="C235"/>
+      <c r="D235"/>
+      <c r="E235"/>
+      <c r="F235"/>
       <c r="G235" t="s">
         <v>107</v>
       </c>
@@ -6877,13 +7230,17 @@
         <v>483</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="236">
       <c r="A236" t="s">
         <v>513</v>
       </c>
       <c r="B236" t="s">
         <v>514</v>
       </c>
+      <c r="C236"/>
+      <c r="D236"/>
+      <c r="E236"/>
+      <c r="F236"/>
       <c r="G236" t="s">
         <v>224</v>
       </c>
@@ -6891,13 +7248,17 @@
         <v>237</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="237">
       <c r="A237" t="s">
         <v>515</v>
       </c>
       <c r="B237" t="s">
         <v>516</v>
       </c>
+      <c r="C237"/>
+      <c r="D237"/>
+      <c r="E237"/>
+      <c r="F237"/>
       <c r="G237" t="s">
         <v>203</v>
       </c>
@@ -6905,13 +7266,17 @@
         <v>510</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="238">
       <c r="A238" t="s">
         <v>517</v>
       </c>
       <c r="B238" t="s">
         <v>518</v>
       </c>
+      <c r="C238"/>
+      <c r="D238"/>
+      <c r="E238"/>
+      <c r="F238"/>
       <c r="G238" t="s">
         <v>107</v>
       </c>
@@ -6921,6 +7286,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>